--- a/exports/tables/BERTTopic_paraphrase-multilingual-MiniLM-L12-v2_merged_predicted_topics_ouliers_reduced.xlsx
+++ b/exports/tables/BERTTopic_paraphrase-multilingual-MiniLM-L12-v2_merged_predicted_topics_ouliers_reduced.xlsx
@@ -46,6 +46,9 @@
     <t>Ich habe keinen Zugbegleiter gesehen und Sicherheitspersonal ist um diese Zeit kaum nötig, ist wohl keine Gegend mit speziellem Risiko</t>
   </si>
   <si>
+    <t>- Die App ist super, prima! - die Zonenbilletts für Zone 110 (Zürich) empfinde ich für einen „lokalen“ Gebrauch eher etwas teuer. Aber ich denke hier kann die SBB keinen Einfluss nehmen da das Pricing mit den Zonen von der VBZ aufgesetzt ist. - Gelegentliche „security“ Einsätze vor allem am späteren Abend fände ich persönlich ein Mehrwert, und würde helfen dass man sich etwas sicherer fühlt, da es häufig vorkommt dass um diese Zeit alkoholisierte/pöbelnde Fahrgäste unterwegs sind. (Vor allem Im Netz Zürich)</t>
+  </si>
+  <si>
     <t>Ob ich mich an Bahnhöfen und im Zug sicher fühle hängt von der Tageszeit ab. Gerade in der Nacht hat es oft unheimliche Gestalten an den Bahnhöfen</t>
   </si>
   <si>
@@ -55,771 +58,771 @@
     <t>Ich vermisse quasi an allen Bahnhöfen in der Schweiz angemessene Wartebereiche, sprich Sitzgelegenheiten und Bänke. Das war früher anders. Insbesondere ältere Menschen, aber auch Jüngere würden sich über Sitzgelegenheiten sehr freuen.</t>
   </si>
   <si>
+    <t>Mehr (oder überhaupt) Abfallbehälter, mehr Zug- und Sicherheitspersonal</t>
+  </si>
+  <si>
+    <t>Sicherheit (insbesondere am Abend und in der Nacht), Sauberkeit und das Verhalten der Passagiere sind ein zunehmendes Problem beim Bahnfahren in der Schweiz. Allerdings muss man dabei klar sagen, dass die Ursachen dafür nicht bei den SBB liegen. Im Vergleich zum umliegenden Ausland macht die SBB einen guten Job, im Umgang mit diesen Herausforderungen. Im Vergleich zu Ländern wie Singapore oder Japan ist die SBB in diesen Bereichen über die Jahre klar zurückgefallen. Persönlich würde ich es sehr begrüssen, wenn in den Zügen ab und zu Patrouillen zum Einsatz kämen, welche nicht nur auf die Sicherheit sondern auch anständiges Verhalten der Passagiere achten würden. Damit würde dann auch die Sauberkeit wieder verbessert.</t>
+  </si>
+  <si>
+    <t>Gewisse Fahrten sind überlastet und daher die Platzauswahl ganz limitiert.</t>
+  </si>
+  <si>
+    <t>Zugslänge den jeweiligen Benutzerzahlen anpassen.</t>
+  </si>
+  <si>
+    <t>Anzeigetafel auf Perron mit Zugskomposition. Die Wechsel der Wagenreihenfolge mit Klasse und Spezialwagen ist zu schnell.</t>
+  </si>
+  <si>
+    <t>mehr Sitzplätze</t>
+  </si>
+  <si>
+    <t>Es war ein sehr sonniger warmer Tag. Es wäre vielleicht schön, wenn die Sitzbank, in Kerzers unter dem Dach, im Schatten, stehen würde. Aber es ist ja schon schön dass eine Bank vorhanden ist. Ich habe 3 Bandscheibenvorfälle und kann nicht lange stehen, wir reden von Minuten, nicht Stunden. Und ich finde es wirklich sehr schade dass man die Sitzbänke, Lenzburg, durch so Stehdinger ersetzt hat. Aber sonst war ich zufrieden mit der SBB.</t>
+  </si>
+  <si>
+    <t>Sparbilett auch auf dieser Strecke</t>
+  </si>
+  <si>
+    <t>In Stosszeiten mehr Wagons zur Verfügung zu stellen. Denn es ist eine Zumutung wenn man mit dem Rücken an die Einstiegstüre gedrückt wird weil es von Bümpliz nord nach Bern in jeden Abteil keinen Platz mehr hat. Und ich spreche hier nicht von Sitzplätzen sondern dass bis ans Ende jedes Wagons die Gänge von Vorne bis Hinten vollgequetscht sind und man trotzdem keinen Platz mehr zum Einsteigen hat und den nächsten Zug abwarten muss. Für das Geld der Zugfahrt darf man erwarten dass man immerhin einen Stehplatz hat ohne von allen Seiten von anderen Fahrgästen zusammengequetscht zu werden!</t>
+  </si>
+  <si>
+    <t>Während Hauptverkehrszeiten mehr Züge einsetzen, um Sitzplatzangebote zu sichern.</t>
+  </si>
+  <si>
+    <t>- Den ICN so schnell wie möglich ausmustern. Dessen Abroll-, Fahr- und Federungskomfort ist sehr schlecht. - Allgemein und v.a. zu Stosszeiten mehr Doppelstock-IC und die alten Kompositionen mit einer Zuglokomotive brauchen. Diese sind viel angenehmer als die ICN. - Die unternehmenspolitische Kommunikation verbessern: Der Durchschnittpendler weiss nicht wann die neuen Dosto voll eingesetzt werden oder warum genau sie sich verspäten. Dafür braucht es keine teuren Marketingaktionen. Einfache Plakate mit ein paar Bulletpoints sind schon mehr als genug.</t>
+  </si>
+  <si>
+    <t>Da ich gehbehindert bin und erst 2 Rückenoperationen hatte, macht mir das Einsteigen sehr Mühe. Die Tritte sind sehr hoch und vom Perron zu weit entfernt. Wegen Corona war ein Shuttle bis Klosters eingesetzt, das war eine neue Komposition. Stylisch sdchön, aber sehr sehr schlecht zum Einsteigen. Da sind die Tritte noch höher, war es für mich praktisch unmöglich. Deshalb mache ich ja Klassenwechsel, denn in der 2. Klasse sind für mich die Sitze viel zu hart im Moment.</t>
+  </si>
+  <si>
+    <t>Ruhewagen auch in der zweiten Klasse</t>
+  </si>
+  <si>
+    <t>Es sollten mehr Doppelstockzüge eingesetzt werden um die Platzzahl massiv zu vergrössern. Die gilt speziell in den Hauptverkehrszeiten.</t>
+  </si>
+  <si>
+    <t>Günstigere Ticket's für AHV-Rentner! Und/oder günstigere Tageskarten für Alle! Es gibt dadurch sicher auch mehr Leute, die mit der Bahn verreisen werden. Die meistens 4 aneinander gereihten Wagon's der 1.Klasse am Beginn des Perron's von der Bahnhofshalle her, z.B. in Zürich, auseinandernehmen und zwischendrin auch mal einen oder zwei- 2.Klasse Wagon platzieren. Leute, die nicht gut zu Fuss sind, werden es Ihnen danken. Nicht nur auf die Bequemlichkeit der 1.Klasse Passagiere Rücksicht nehmen. Die meisten Passagiere sind ja die in der zweiten Klasse und bezahlen eigentlich das meiste an die Infrastruktur - oder? Vielen Dank, dass ich hier meine Meinung sagen durfte.</t>
+  </si>
+  <si>
+    <t>Im allgemeinen, falls möglich mehr Schnellzüge zu Stosszeiten.</t>
+  </si>
+  <si>
+    <t>Mehr Zugwaggons ins den Stosszeiten - häufig kein Sitzplatz vorhanden. Vergnünstigungen, wenn keine Sitzoption zur Verfügung steht?</t>
+  </si>
+  <si>
+    <t>Weniger 1. klasse Wagen ist eigentlich überholt die leer 2. voll</t>
+  </si>
+  <si>
+    <t>Das Platzangebot in den neuen Dosto-Zügen ist zu Stosszeiten nach wie vor ungenügend! Die 2. Klasse war bereits am Flughafen Zürich übervoll. Dies war der Grund warum ich mit einem Klassenwechsel in die 1. Klasse ausweichen musste, um überhaupt einen Sitzplatz zu haben. Dies ist übrigens im IC13 um 17:23 ab Flughafen Zürich immer der Fall.</t>
+  </si>
+  <si>
+    <t>Die 2. Klasse ist meistens überfüllt und die Leute müssen während der Zugfahrt stehen oder auf dem Boden sitzen. Dafür herrscht in der 1. Klasse gähnende Leere. Es sollten viel mehr Waggons für die 2. Klasse bereit stehen, denn nicht jeder kann sich ein 1.Klasse-Ticket leisten.</t>
+  </si>
+  <si>
+    <t>Generell ist das Platzangebot mehr und mehr, nicht mehr nur zu Berufsverkehr - Zeiten, zu knapp. Man kann wohl das Rollmaterial heute flexibler planen als früher und nutzt dies, um in Randzeiten Wagen - und damit Energiekosten - zu sparen. Und erzeugt damit eine Viehtransporter Atmosphäre, die nicht dazu beiträgt, dass man auf öffentliche Verkehrsmittel wechselt.</t>
+  </si>
+  <si>
+    <t>Mehr Sitzplätze</t>
+  </si>
+  <si>
+    <t>Platzangebot auf der Hinreise Basel - Olten am Morgen 2.Klasse sehr knapp !</t>
+  </si>
+  <si>
+    <t>Mehr Zugwaggons</t>
+  </si>
+  <si>
+    <t>Es wäre schön, wenn es mehr 2. Klasse Wagen hätte da die 1. Klasse meistens leer ist.</t>
+  </si>
+  <si>
+    <t>Sitze sind auf dieser Strecke selbst in der ersten Klasse doch ordentlich durchgesessen.</t>
+  </si>
+  <si>
+    <t>Die Rückreise war wesentlich unangenehmer. Zu viele Leute auf engem Raum, keine Sitzplätze, kein WC.</t>
+  </si>
+  <si>
+    <t>Mehr Wagons einsetzen für die 2. Klasse-Reisenden.</t>
+  </si>
+  <si>
+    <t>Verhindern dass die Züge überfüllt und dadurch Verspätung bekommt.</t>
+  </si>
+  <si>
+    <t>Es gibt nach wie vor eine ungünstige Verteilung von 1. Klass- und 2. Klasswagen. Während zu gewissen Zeiten die 2. Klasse hoffnungslos überfüllt snd, herrschen zum gleichen Zeitpunkt un der 1. Klasse</t>
+  </si>
+  <si>
+    <t>Mehr 2 Klasse Wagen zur Verfügung stellen. Funktionierende Klimaanlagen. Oder gar die 1. Klasse auflösen (da viele Plätze meist unbesetzt sind und in der 2. Klasse viele Leute stehen müssen, obwohl sie für ihr Ticket bezahlt haben).</t>
+  </si>
+  <si>
+    <t>in einem postauto wäre es schön, wenn der chauffeur die vordere türe bei jedem halt öffnen würde, um so für mehr frische luft im innern zu sorgen. nur über die mitteltüre gibt es zuwenig luftaustausch in zeiten wie diesen. danke.</t>
+  </si>
+  <si>
+    <t>Was den Zug betrifft, mehr Wagen an die Lok hängen? Er ist oft recht voll!</t>
+  </si>
+  <si>
+    <t>Mehr Veloabstellplätze</t>
+  </si>
+  <si>
+    <t>Ich schätze Stille-Wagen. Gerne auch in der 2. Klasse.</t>
+  </si>
+  <si>
+    <t>Evtl. Die Züge immer mit grossen Tischen zum Arbeiten ausstatten.</t>
+  </si>
+  <si>
+    <t>Bei zu erwartenden vollen Zügen mehr Waggons einsetzen.</t>
+  </si>
+  <si>
+    <t>In Reisezeiten mit grossem Sitzplatzbedarf mehr Sitzplätzen anbieten bzw. mehr Wagen pro Zug einsetzen.</t>
+  </si>
+  <si>
+    <t>Ich bin mit Ihrem Angebot immer sehr zufrieden. Die Sitze im Thurbo sind für die Gesamtfahrt nach Konstanz ziemlich unbequem - das ist das Einzige, das mir einfällt. Danke für Ihre Arbeit.</t>
+  </si>
+  <si>
+    <t>schön wäre es wenn im 2Kl Wagen auch die neuen Wagons benutzt werden. Die Abteile der 2 Kl dürften bessere Arbeitsplätze ausgestattet werden. Im Vergleich zur ersten Klasse ist es unbequem zum arbeiten.</t>
+  </si>
+  <si>
+    <t>Bei der ungeplanten Rückfahrt am Mo Morgen war der Zug Lenzburg - Olten (bis Aarau) übervoll (IR2256), dh. die Reisenden füllten die ganzen Gänge.</t>
+  </si>
+  <si>
+    <t>Genügend Sitzplätze auch bei Stosszeiten, ist aber begreiflicherweise schwierig zu realisieren...</t>
+  </si>
+  <si>
+    <t>Ich würde mich freuen wenn das 1. Klasse abteil im unteren Teil von den Neueren Zügen ein ganzes 1.Klasse Abteil wäre und die Türen breiter sind so das man auch mit einem Breiteren Wägeli in die 1. Klasse Sitzen kann.</t>
+  </si>
+  <si>
+    <t>Das einzige was ich „doof„ fand war, dass ich die Juniorenkarten die ich am Vortag kaufte Zuhause liegen liess. Und die Konsequenz war natürlich, dass ich je Fr. 5.- nachbezahlen musste. Die Kinder lernten jedoch dabei, dass auch ich die Konsequenzen tragen muss, wenn ich mich nicht richtig verhalte. ????</t>
+  </si>
+  <si>
+    <t>Reservationssystem - Anzeigen sind oft fehlerhaft, zeigen FREI und dann kommt trotzdem jemand mit einer gültigen Reservation</t>
+  </si>
+  <si>
+    <t>Früher habe ich ab und zu spontan mein Velo mitgenommen, mit Voranmeldung zu mühsam.</t>
+  </si>
+  <si>
+    <t>Mir ist aufgefallen, als ich mit dem Velo die SBB nutzte, dass der Parkplatz für die Velo im Regio sehr eng berechnet ist und teilweise von Personen mit grossen Koffern genutzt wird. Klar wird nicht auf jeder Fahrt der Veloplatz gebraucht, aber damals war es einfach viel zu eng... Eventuell sollte der Platz neu berrechnet werden...ich fuhr von Lugano nach Zürich HB...</t>
+  </si>
+  <si>
+    <t>Es ist auch in der 1 Klasse sehr wenig Platz für Gepäck vorhanden. Besonders bei Fahrten zum Flughafen ist das nicht ideal.</t>
+  </si>
+  <si>
+    <t>- Mehr und einfachere Verlademöglichkeiten von Fahrräder. Notfalls mit altem Gepäckwagen, dafür hat es ausreichend Platz. - Das verladen des Fahrrads meiner Partnerin war etwas umständlich. Zuerst bekam sie keine Platz Nummer, danach war die Türe verrigelt, bei der nächsten Station musste sie das Fahrrad nochmals in den richtigen Wagen umplatzieren und am Schluss half ihr niemand beim ausladen des Fahrrads. Neben meinem Fahrrad hätte es auf der ganzen Fahrt noch einen freien Platz gehabt. Ungebrauchte Platzreservationen sollten zeitnah, kostenlos annulliert werden können. -Zum Glück hat bei mir alles tip top funktioniert. Danke.</t>
+  </si>
+  <si>
+    <t>Mehr platz im Zug</t>
+  </si>
+  <si>
+    <t>Kundenunfreundliche Perronzugänge zu Perron 2 und 3. Nur Treppen zu diesen beiden wichtigsten Perrons und einen alten sehr langsamen kleinen Lift. Umsteigezeiten von SOB zu SBB für Züge nach Zürich oder Chur sind knapp. Mit Koffern oder sonst viel Gepäck jedesmal ein Stress und sehr mühsam. Dazu sehr schmale Aufgänge für soviele Leute.</t>
+  </si>
+  <si>
+    <t>Es war zu wenig Platz. Mehr Wagons</t>
+  </si>
+  <si>
+    <t>Für langjährige Velo Reise Kunden, wurde es leider umständlicher spontan loszuziehen. Ich begreife warum, aber die Spontanität vermisse ich beim Velo Zug Reisen</t>
+  </si>
+  <si>
+    <t>In Engelberg ist der Anschluss Richtung Fürenalp und Brunni schlecht. Ich sass mal im Zug, als eine Reinigungskraft (ausländischer Herr), der die Abfallkörbe im Abteil leerte, so auch bei mir. Er trug die Maske am Kinn! Manchmal braucht es in Stosszeiten mehr Wagen, um alle Reisende sitzend und bequem zu befördern. Die Abstände in den Abteilen sind oft eng, sodass man den Rucksack nicht bequem zwischen den Beinen am Boden halten kann, ohne den Reisenden vis à vis zu stören. Die Ablagen sind mir oft zu hoch, sodass ich das Gepäck nicht dort ablegen kann, und somit Platz am Boden brauche. Es wäre mir auch zu schwer, das Gepäck hoch zu stemmen. Es brauchte mehr Platz dafür im Wagen und im Abteil.</t>
+  </si>
+  <si>
+    <t>Es ist sehr wenig Platz für Velos, speziell diese Verbindung und diese Uhrzeit, und Schwierig dass Kinderwagen und Velos in den selben Wagon sollten, Mir ist bewusst dass es auch immer sehr viele Velos sind</t>
+  </si>
+  <si>
+    <t>besseres platz verhältnis für reisegepäck. wahr ungenügend. nicht angenehm wenn man mit reisegepäck unterwegs ist. sehr eng dan.</t>
+  </si>
+  <si>
+    <t>Wenig Platz für Gepäck (Skitourist), manchmal auch wenig Sitzolätze.</t>
+  </si>
+  <si>
+    <t>Trotz Veloplatzreservierung für zwei Fahrräder, hatte es nur Platz für ein Fahrrad. Danach wurde ich von der Zugbegleiterin angewiesen, dass mein Fahrrad nicht im Eingangsbereich stehen könne. Falls es Platzreservationen für Velos braucht, sollten die Zugbegleiter auch dafür sorgen, dass alle mit einer Reservation Platz finden. Jene ohne Reservation, müssten bis zur letzten Minute warten.</t>
+  </si>
+  <si>
+    <t>Bei Doppelstockzügen klarere Zuweisung von genügend Platz für grössere Gepäckstücke. Man hat den Eindruck, dass das bei jedem Wagen anders ist Man kann nicht damit rechnen, dass an jedem Eingang genügend Raum ist, die grossen Gepäckstücke zu deponieren, die nicht in die kleinen Ablagen in den Doppelstockwagen passen.</t>
+  </si>
+  <si>
+    <t>Wir waren mit Fahrrädern unterwegs und das ist leider zwischenzeitlich ein Problem, vor allem bei den IC-Zügen. Die verfügbaren Plätze sind meiner Meinung nach viel zu wenig.</t>
+  </si>
+  <si>
+    <t>Bitte bei Feriensamstagen Anreise und Abreise mehr Wagen. Es hat einfach viel zuwenig Platz! Postauto 2 Stück für die gleiche Strecke! Unter diesen Umständen fahren die Feriengäste nicht mehr mit ÖV sondern mit dem Auto</t>
+  </si>
+  <si>
+    <t>Wir waren mit Fahrrädern unterwegs mit entsprechender Reservation. Das Verstauen der Fahrräder im IC Zug war umständlich.</t>
+  </si>
+  <si>
+    <t>Der Fahrradständer am Bahnhof Oberbuchsiten muss dringend modernisiert werden!</t>
+  </si>
+  <si>
+    <t>kein platz für bike auf der strecke nach brig rückreise mit bike bewertung eine 1 weil platzproblem</t>
+  </si>
+  <si>
+    <t>Steckdosen, weil jeder Mensch heute entweder Computer, Handy oder ein anderes elektronisches Gerät benutzt und mehr Stauraum für Gepäck, weil die meisten Menschen ins Bündnerland nun mal mit dem einen oder anderen Gepäckstück, Velo, Skiern o.ä. reisen und das zu jeder Jahreszeit.</t>
+  </si>
+  <si>
+    <t>Der Preis für Hin- und Rückreise sollte generell günstiger sein als zwei Einzelfahrten.</t>
+  </si>
+  <si>
+    <t>Mehr Sparbillette</t>
+  </si>
+  <si>
+    <t>Ja, die Preise senken, es ist einfach zu teuer!</t>
+  </si>
+  <si>
+    <t>mehr Sparbillette anbieten</t>
+  </si>
+  <si>
+    <t>Der Preis war sehr hoch. Ohne 1/2 Abo könnte man sich eine solche Reise nicht ermöglichen.</t>
+  </si>
+  <si>
+    <t>Zugtickets günstiger machen. Wenn man ein Auto hat ist das Zugfahren im Verhältnis sehr teuer.</t>
+  </si>
+  <si>
+    <t>Ich finde, in der Schweiz sind wir mit dem ÖV ausgezeichnet bedient. Wahrscheinlich ist das Angebot im Rahmen der finanziellen Möglichkeiten kaum noch verbesserbar. Auch das Schienennetz ist wahrscheinlich an der obern Grenze der Belastbarkeit. Ich meine, dass in einer Langzeitperspektive die Strasse weniger und der ÖV mehr subventioniert werden müsste.</t>
+  </si>
+  <si>
+    <t>- Preise / Kosten senken, von GA und Billetts - ist viel zu teuer.</t>
+  </si>
+  <si>
+    <t>Das Swype Modell finde ich super, manchmal zahlt man aber mehr als nötig, wenn vergessen wird auszuloggen.</t>
+  </si>
+  <si>
+    <t>Preise senken :)</t>
+  </si>
+  <si>
+    <t>Der Preis scheint mir zu hoch nach Preis/Leistung und hatte nicht einmal ein Sitz frei und hatte eine Koffer dabei.</t>
+  </si>
+  <si>
+    <t>Billete sind teuer, wenn man kein Sparticket zur Verfügung hat...</t>
+  </si>
+  <si>
+    <t>Preise senken</t>
+  </si>
+  <si>
+    <t>Zu teuer</t>
+  </si>
+  <si>
+    <t>Günstigere Tarife für Pendler anbieten.</t>
+  </si>
+  <si>
+    <t>Für den Preis von CHF 90.- für die erste Klasse erwarte ich ein viel besseres Platzangebot.</t>
+  </si>
+  <si>
+    <t>Sie könnten Studentenrabatt erstellen, damit ich Zugfahren kann und nicht ständig das Auto nehmen muss</t>
+  </si>
+  <si>
+    <t>Grundsätzlich guter Service. Klassenwechsel für GA Kunden könnten günstiger sein, sodass man mit einem Halbtax Abo mehr zahlt und nicht gleich viel. Die Doppelstock Züge von Bombardier schütteln zu fest, wenn man oben sitzt kann dies sehr unangenehm sein. Sonst ok.</t>
+  </si>
+  <si>
+    <t>Mehr Sparbillette, auch kurzfristig</t>
+  </si>
+  <si>
+    <t>Das Velo war verhältnismässig teuer. Die SNCF macht’s besser.</t>
+  </si>
+  <si>
+    <t>Für mein Budget ist der Preis mit dem Halbtax ziemlich hoch.:(</t>
+  </si>
+  <si>
+    <t>Ich habe GA Ticket und ich kaufe immer gleiche Preis wie normal Leute von Milano nach Chiasso .</t>
+  </si>
+  <si>
+    <t>Normale Preise. Ich zahle nicht 23.- für ein stehplatz</t>
+  </si>
+  <si>
+    <t>Warum kostet die Strecke Bern - Gempen mehr als wenn ich Bern-Liestal, Liestal- Gempen separat buche? Da fühle ich mich über den Tisch gezogen.</t>
+  </si>
+  <si>
+    <t>Vergünstigungen für Studierende-Anbieten, Das Zug-Fahren noch mehr fördern</t>
+  </si>
+  <si>
+    <t>Es könnte ein wenig günstiger sein.</t>
+  </si>
+  <si>
+    <t>Bitte mehr Velostellplätz</t>
+  </si>
+  <si>
+    <t>Seit der Einbindung meines Wohnorts in den Tarifverbund sind die Fahrkarten massiv teurer geworden und ein Rüxckfahrtbillet zu kaufen ist nicht mehr möglich. Das ist einfach nicht in Ordnung!!</t>
+  </si>
+  <si>
+    <t>Die GA-Preise senken. Ich kenn viele, die ein GA kaufen würden wenn es erschwinglicher wäre (z.B. auch als Ergänzung zu einem Auto).</t>
+  </si>
+  <si>
+    <t>Am Bahnhof Landschlacht fehlt ein Halt-Auf-Verlangen-Knopf wenn man von den Veloständern kommt. Ich finde es sehr schade, dass das Studenten GA abgeschafft wurde.</t>
+  </si>
+  <si>
+    <t>Kürzere Haltezeiten</t>
+  </si>
+  <si>
+    <t>Ohne umsteigen in bern nach thun wäre super</t>
+  </si>
+  <si>
+    <t>Ausstieg vom Zug in Domodossola zu hoher Tritt. Gefährlich.</t>
+  </si>
+  <si>
+    <t>Ich muss zu dieser Bahnverbindung sagen, dass der Zug ab Lenzburg (weiterfahrend nach Basel SBB) oft verspätet eintrifft. Manchmal sind es nur ein paar Minuten, heute jedoch ist der Zug sogar ausgefallen. Wegen technischer Probleme.</t>
+  </si>
+  <si>
+    <t>Zürich-Bern weniger Gäste im Zug, respektive mehr Wagen oder mehr Züge.</t>
+  </si>
+  <si>
+    <t>Auf der Strecke Zürich - Rapperswil-Jona, Rapperswil Glarus mehr Sitzplätze. Das wäre erwünscht. Danke</t>
+  </si>
+  <si>
+    <t>Als Anschluss fuhren wir mit dem IC842, Zürich HB ab 04.01.2020 00:02 nach Bern. Dieser Zug erreichte Bern mit rund 12 Minuten Verspätung. Unverständlich, dass um diese Nachtzeit ein IC vor dem Bahnhof Bern 10! Minuten warten muss. Gemäss Durchsage war im Bahnhof Bern kein freies Gleis verfügbar! Immerhin wartete der IC 993 Richtung Thun den Anschluss noch knapp ab. Andernfalls wären wir mit zahlreichen anderen Fahrgästen in Bern gestrandet...</t>
+  </si>
+  <si>
+    <t>Verbesserung des Türschliesssystem, damit keine Personen mehr mitgeschleift werden, weil sie den Arm nicht mehr aus der geschlossenen Tür herausziehen konnten. Am Samstag 10. Aug. sind wir im IC um 16.00 von Milano nach Bern gefahren. Belegung bis auf den letzten Platz. Katastrophale Platzverhältnisse für das Handgepäck und die Koffern. Wir haben gehört, dass bei dieser Zugskomposition immer dieselben Probleme bestehen. Der Konstrukteuringenieur dieser Zugskomposition muss ein völliger Idiot gewesen sein.</t>
+  </si>
+  <si>
+    <t>Alles auf dieser Fahrt war kein Problem. Aber ich wollte den Zug 10:06 nach Saunen nehmen. Aber die schnellen Linien sind immer überfüllt mit Touristen. Es kann nicht sein, dass man den ganzen Zug nur für die Touristen reserviert. Es ist zwingend notwendig, dass auch mindestens 1-2 Waggons für spontane Reisende ohne Reservation leer sein sollten.</t>
+  </si>
+  <si>
+    <t>Bin erstaunt gewesen, dass diese neue Verbindung über Zürich HB geführt wird. War der Meinung, dass sie direkt nach Zürich-Altstetten führt.</t>
+  </si>
+  <si>
+    <t>S1 zwischen Rotkreuz und Luzern mit Abfahrtszeit in Rotkreuz xx:16 ist seit der Zuger Seesperre konstant mit grossen Verspätungen (&gt;5 Minuten) unterwegs. Anschlussbusse in Ebikon werden oft nicht erreicht und dann muss man eine halbe Stunde warten.</t>
+  </si>
+  <si>
+    <t>Durch die Einstellung des ZVV Nachtnetzes haben sich Aufenthaltsqualität, Publikum und Sauberkeit im Bereich Zürich HB am Sonntagmorgen markant verbessert.</t>
+  </si>
+  <si>
+    <t>Onlineportal verbessern für die richtige und kostengünstige Ticketauswahl, z.B der Citytarif nach Glattbrugg beinahe übersehen.....</t>
+  </si>
+  <si>
+    <t>Die neuesten Züge auf der Strecke Chur-St. Gallen-Zürich (Quer-) schüttelfreier machen lassen..</t>
+  </si>
+  <si>
+    <t>Fahrpläne erstellen die auch eingehalten werden können. Dh es ist für mich als Kunde wichtiger, dass der Zug dann fährt wenn er angekündigt ist, als dass ich all 2min darüber informiert werden muss, dass ich weitere 3min warten muss.</t>
+  </si>
+  <si>
+    <t>Ich musste selber schauen, wie ich nach Basel ankommen. Niemand hat sich verantwortlich gefühlt.</t>
+  </si>
+  <si>
+    <t>Am Morgen von Safenwil nach Lenzburg hat der Zug vielmals Verspätung (im Moment ist es gut) und ich muss vom Gleis 5 Sektor C zur Unterführung auf das Gleis 2. Warum kann die S11 in Lenzburg nicht auf dem Gleis 4 verkehren? Wäre in beide Richtungen wünschenswert. Damit der Anschluss besser gewährleistet ist. Leider verkehrt der die S28 auch nicht immee von Gleis 5 aus, je nach Zeit auch Gleis 6, dass war nicht immer so. Ich fahre seit 2008 diese Strecke und bis vor ein paar Jahren war es immer Gleis 5. Noch ein anderes Problem, vielfach kommt der 1. Zug von Lenzburg Richtung Zofingen verspätet, warum? Dann verspätet sich auch mein Zug Richtung Lenzburg (Teilstrecken sind nur Einspurig). Auch in Suhr muss häufig auf den Gegenzug gewartet werden. Speziell ist auch, dass das Perron in Suhr zwei Gleis hat. Richtung Lenzburg Gleis 6 Richtung Zofingen Gleis 5, da sich die Gleise im Bahnhof trennen, gleiches Perron zwei Gleise und somit kann der Zug Richtung Lenzburg erst ausfahren, wenn der aus Lenzburg an diesem vorbei ist. Zeit der Weiterfahrt Gleis 6 Richtung Lenzburg gemäss Fahrplan 06:12, Ankunft der S28 aus Lenzburg 06:13 Uhr Gleis 5. Da sich die beiden Züge unmittelbar vor/nach Suhr das Gleis teilen, kann der Zug gar nicht 06:12 Uhr ausfahren, da der Gegenzug noch nicht vorbei ist. Das sind meine Gedanken zu neiner Zugverbindung. Im Moment funktioniert es gut, aber es gibt oft Zeiten da ist es sehr intensiv mit Verspätungen und Ausfällen. Wünsche Ihnen viel Erfolg bei den Problemlösungen im Schienennetz.</t>
+  </si>
+  <si>
+    <t>Zug der Rückfahrt hatte Verspätung - Anschluss verpasst! Pünktlichkeit ist wichtig.</t>
+  </si>
+  <si>
+    <t>Von St Gallen nach Rorschach hat der Doppel Zug ziemlich gestunken nicht gerade sehr angenehm gewessen</t>
+  </si>
+  <si>
+    <t>Dieser Zug war nicht die Hinreise, sondern die Heimreise! Diese Möglichkeit fehlt bein den Angaben Die Hinreise Basel Zürich war ein Sparticket, der Zeitpunkt der Rückreise offen.</t>
+  </si>
+  <si>
+    <t>Ich habe in diesen Tagen 4 Billette nach Zürich gekauft. zweimal war ich von Verspätungen/Zugsausfall betroffen. 1x s25 mit Kupplungsproblemen und Zugsausfall in Ziegelbrücke = 30 Minuten Wartezeit auf den folgenden Zug. 1x von Zürich 5 Minuten Verspätung wegen Gleisproblemen. Anschluss in Ziegelbrücke war aber gesichert.</t>
+  </si>
+  <si>
+    <t>die verbindungen auf der strecke zug - ebikon sind insbesondere abends seit dem sommer 2019 chronisch verspätet.</t>
+  </si>
+  <si>
+    <t>Nicht zuspät kommen, sonst ok.</t>
+  </si>
+  <si>
+    <t>Ich möchte mich äussern zur HIN-Fahrt am Morgen, und eigentlich gar nicht zur abgefragten Rückfahrt am Abend! Am 7.1.2019 fiel der Zug Olten - Zürich HB morgens 7.29 Uhr TOTAL aus (ich kam von Hägendorf). Info im Zug/am Bahnhof gab es keine oder ich bekam es nicht mit. Stand auf dem falschen Gleis und musste mir die Ausweichmöglichkeit per Regionalzug via SBB App möglichst schnell zusammensuchen. Erreichte die Arbeit natürlich verspätet. SICHERHEITSGEFÜHL/SAUBERKEIT: am schlechtesten vor allem nachts am Bahnhof Hägendorf!!</t>
+  </si>
+  <si>
+    <t>Die Anschlüsse in Luzern müssen verbessert werden.</t>
+  </si>
+  <si>
+    <t>Liebe SBB - Sie machen das ganz gut. Mein Anschluss war dann mit dem Gottardo nach Faido. schöner, neuer Zug. on time, nicht überfüllt (1.Kl). auch der retour Weg hat gut geklappt. wir fahren ab und zu nach Zermatt... der Visper Zug ist oft sehr sehr voll. hier müsste man wohl auf Halb-Stunden Takt umstellen (Direktzug ZRH-Visp). Liebe Grüsse Cornelia Gemperle</t>
+  </si>
+  <si>
+    <t>Ich fahre seid Ende Februar diese Strecke einmal die Woche und es wurden erst 2 Kontrollen gemacht. Ist die ein normaler Rhythmus?</t>
+  </si>
+  <si>
+    <t>Von Dietikon zum Flughafen Zürich wäre ohne umsteigen besser.</t>
+  </si>
+  <si>
+    <t>Wir sind begeisterte E-Bikefahrer. Auf der befragten Strecke Marthalen Zürich ist das kein Problem. Auf andern Strecken mit IR und IC wünschen wir uns dringend mehr Veloplätze und bei IR ebenerdigen Einstieg.</t>
+  </si>
+  <si>
+    <t>Auf der Rückfahrt von Zürich nach Winterthur hatte ich das Vergnügen, das erste Mal mit dem neuen Bombardier Doppelstockzug zu fahren. Das Vergnügen entpuppte sich innert kürzester Zeit aber als ZugfahrALPTRAUM. In diesem Zug wird man von A - Z durchgeschüttelt und -gerüttelt. Ich war heilfroh, als ich in Winti wieder aussteigen konnte. Mir graut es jetzt schon, wenn ich das erste Mal wirklich eine lange Strecke mit dieser Klapperkiste fahren muss. Da ist Übelkeit und Unwohlsein mehr als vorprogrammiert. Ich werde versuchen, diesen Zug so gut als möglich zu umgehen und da wäre es sicher hilfreich, wenn man in der APP sehen würde, welcher Zug die benötigte Strecke fährt.</t>
+  </si>
+  <si>
+    <t>Das Streichen vom Entlastungszug 7:20 schränkt mich täglich ein (sofern nicht gerade HomeOffice statt findet). Bitte wieder einführen. Sonst generell zufrieden mit dem öffentlichen Verkehr.</t>
+  </si>
+  <si>
+    <t>Verspätungen auf der Strecke Solothurn-Brugg und umgekehrt reduzieren.</t>
+  </si>
+  <si>
+    <t>Während dieser speziellen Pandemiezeit den Zug verkürzt fahren zu lassen ist frag-würdig.</t>
+  </si>
+  <si>
+    <t>Gibt es die Option von Mehrkartenfahrten für die Strecke Zürich - Brione sM?</t>
+  </si>
+  <si>
+    <t>Der Zug ist ausgefallen, kein Ersatz</t>
+  </si>
+  <si>
+    <t>Information bei Verspätungen</t>
+  </si>
+  <si>
+    <t>Der Zug auf der Rückfahrt ist ausgefallen und ich musste den Zug um 17.09 h nehmen, so dass ich nachher auf den Bus warten musste und eine Stunde zu spät nach Hause kam.</t>
+  </si>
+  <si>
+    <t>Mehr Verbindungen nach Engelberg wären schön. Halbstundentakt.</t>
+  </si>
+  <si>
+    <t>Wegen Panne mit dem ICE ab Bern16:04, war Umsteigen in Olten nötig. Ankunft in Basel mit ca 30 Minuten Verspätung.</t>
+  </si>
+  <si>
+    <t>Die Unzufriedenheit beruht auf der Verspätung, die in Deutschland stattgefunden hat, und mit der SBB nicht direkt in Zusammenhang steht.</t>
+  </si>
+  <si>
+    <t>Da ich keine gleitende Arbeitszeit habe, beträgt der tägliche Mehraufwand wenn ich mit dem ÖV reise, Bern -Muri +2.5 Std Nicht Reisezeit! Zusätzlich! Das ist viel zu viel.. keine Option..mehr Sitzplätze in den PendlerStosszeiten und nicht nur alle Std 1 Zug.. zudem sind die Spar Möglichkeiten wenn man so 2-3 Mal die Woche nach Bern muss gleich null.. es Rentieren weder GA noch Streckenabo</t>
+  </si>
+  <si>
+    <t>Diese Zugfahrt war privat. Aber in derselben Woche machte ich eine geschäftliche Zugfahrt. Da ein Zug technische Störungen hatte war ich nicht rechtzeitig am Arbeitsort beim Kunden. Das ist immer wieder sehr mühsam und schwierig, weil man Menschen warten lassen muss. Ich bitte Sie deshalb dringend noch mehr in die Behebung dieser technischen Störungen zu investieren. Zweitens suche ich immer wieder vergebens nach Stromanschlüssen in den S-Bahnen. Da ich oft im Zug mit dem Compi arbeite und einen Hotspot nutze, brauche ich auch Strom. Auch hierfür bin ich Ihnen sehr dankbar, wenn Sie noch mehr Möglichkeiten anbieten können. Insgesamt möchte ich mich aber für den tollen Service und Ihre Arbeit bedanken!</t>
+  </si>
+  <si>
+    <t>Kontrolle der Billette in der S6 Zürich - Regensdorf wird viel zu wenig durchgeführt , finde dies nicht in Ordnung, gilt auch Zürich - Oerlikon</t>
+  </si>
+  <si>
+    <t>Zugsverspätungen beheben</t>
+  </si>
+  <si>
+    <t>Weshalb werden mir nur datailierte fragen zur Strecke von Wichtrach nach Thun gestellt? Sehr gerne hätte ich all diese Fragen über die Strecke von Thun nach Kandersteg beantwortet, denn mit disem Teil meiner Zugreise war ich überhaupt nicht zufrieden! Warum werden auf dieser gut besuchten Strecke nur Züge eingesetzt die vom Sitzplatzangebot her so beschränkt sind, dass sehrsehr viele Passagiere stehen müssen und noch dass knapp können da man wie Sardinen in der Büchse (nach der Trennung des Zuges in Spiez) reisen muss!? Und einwn Tag später, auf der Rückreise von Reichenbach i.K. nach Thun herrschte wieder genau die selbe Situation; ein viel zu kurzer/kleiner Zug mit zu wenigen Sitzplätzen!</t>
+  </si>
+  <si>
+    <t>Umsteigezeit am HB Bern ist zu kurz Ich erreiche den Anschlusszug nach Wabern nur in 50% der Fälle, trotz Spurt auf dem Perron</t>
+  </si>
+  <si>
     <t>Mehr Sekuritas abends</t>
   </si>
   <si>
-    <t>Mehr (oder überhaupt) Abfallbehälter, mehr Zug- und Sicherheitspersonal</t>
+    <t>Ich war zwanzig Minuten zu früh am Bahnhof. Der Monitor zeigte Gleis 7 an. Kurz vor der Abfahrt fuhr ein Güterzug vom Westen kommend Richtung Osten auf Gleis 7. Da realisierte ich, dass mein Zug vielleicht nicht auf Gleis 7 fährt und rannte nach unten zur Anzeigetafel. Da stand dann Gleis 8. Da ich 75 Jahre alt bin, konnte ich nicht so schnell rennen und hätte fast den Zug verpasst, wäre er zur richtigen Zeit abgefahren. Doch hatte er Verspätung und so erwischte ich ihn problemlos. Frühzeitig ide Geleiseänderung bekannt geben, wäre für mich wichtig gewesen!</t>
+  </si>
+  <si>
+    <t>Die Taktzeiten dürfen nicht zu eng bemessen sein.</t>
+  </si>
+  <si>
+    <t>Letztens GA vergessen. Musste 5chf zahlen obwohl ich mich klar ausweisen konnte. Hätte man auch Kulanz zeigen können.</t>
+  </si>
+  <si>
+    <t>Wenn es möglich wäre, auf der App anzuzeigen, dass der Anschlussug nach Kandersteg verschiedene Wagen mit verschiedenen Zielen hat, wäre es entspannter..</t>
+  </si>
+  <si>
+    <t>Beim Lösen der Fahrkarten passierte mir der Fehler, dass ich irrtümlich 1. Klasse löste ca. 1. Stunde der Abfahrt. Bei 2 Personen ein teurer Ausflug nach Altstetten. Leider kann man nur unter bestimmten Bedingungen einen solchen Kauf/Irrtum korrigieren, ich finde dies nicht gut, insbesondere nicht weil das ja EDV-mässig gelöst werden könnte.</t>
+  </si>
+  <si>
+    <t>Habe immer wieder Probleme mit der SBB App. Musste Fahrkarten schon mehrmals über die BLS App lösen . Auf dem BH-Grenchen-Süd konnte mir auch niemand helfen</t>
+  </si>
+  <si>
+    <t>Das SBB App funktioniert nur ganz bei der Einstellung „immer“ und nicht „ beim Verwenden der App“</t>
+  </si>
+  <si>
+    <t>Ticket sollte per App lösbar sein oder - wenn es nur eine Station ausserhalb der Schweiz ist, im GA enthalten sein.</t>
+  </si>
+  <si>
+    <t>Der Ticketkauf via Internet ist für einen ungewohnten Zugfahrer mühsam - wenn man ein Ticket ohne jegliche andere Apps etc als 100% Zahlender kaufen möchte.</t>
+  </si>
+  <si>
+    <t>Ich finde es nicht so übersichtlich beim Buchen der Fahrten über die SBB app.</t>
+  </si>
+  <si>
+    <t>Familienkarten sollten bei den Erwachsenen in der SBB-App hinterlegt werden können.</t>
+  </si>
+  <si>
+    <t>Wir sind von Kurzrickenbach Seepark nach Überlingen gereist. Gerne hätte ich im SBB App oder auf SBB-Online auch gleich das Baden Württemberg Ticket gekauft, habe diese Option aber nicht gefunden. Ich konnte das Ticket dann aber am SBB Automaten an der Haltestelle lösen, das finde ich eine gute Sache. Unklar war leider ob das Ticket schon ab Kurzrickenbach gültig gewesen wäre, da diese Haltestelle in der gleichen Ostwind Zone wie Kreuzlingen liegt, drum habe ich bis Konstanz noch ein SBB Ticket gelöst.</t>
+  </si>
+  <si>
+    <t>Ausfälle geschehen nicht nur wie bei mir heute bei einer Privatbahn, sondern auch bei den SBB; ebenso Verspätungen, wie bei mir gestern auf der Reise in umgekehrter Richtung zwischen Uetikon und Rapperswil. Froh wäre ich dann jeweils um zutreffende Informationen via Lautsprecher oder Anzeige am Ausgangsbahnhof. Geklappt hat es gestern mit der SBB Mobile App: es hiess, der SOB-Zug ab Rapperswil warte den verspäteten Anschluss ab.</t>
+  </si>
+  <si>
+    <t>Wir wollten in Sugiez das Ticket mit dem Schiff nach La Neuveville und nachher nach Rüschlikon nehmen. Das war nicht möglich. Beim Bahnhof Sugiez existierte Rüschlikon und Thalwil nicht.</t>
+  </si>
+  <si>
+    <t>Easy Ride Finde ich toll. Benutze die App regelmässig. Das Angebot auch für Junior Karte erweitern.</t>
+  </si>
+  <si>
+    <t>Bahnhof Schübelbach-Buttikon wieder bedienen, dann brauche ich das Auto nicht...</t>
+  </si>
+  <si>
+    <t>in der App SBB Preview kann keine Libero Tageskarte 10 Zonen gekauft werden. Schade. In BLS App ist das möglich. Werde das. nächste mal dort Tageskarte kaufen</t>
+  </si>
+  <si>
+    <t>Ich nutze die App mit meinem privaten Account auf der Testversion und mit dem Firmen-Account auf der vollen Version. Hebe es noch nicht fertig gebracht mit der Firmenmailadresse meinen privaten Swisspass zu verknüpfen. Ich möchte meine private MAiladresse dort nicht aufgeben.</t>
+  </si>
+  <si>
+    <t>diesen eurocity aus dem programm nehmen! Zug-Milano auf dem app buchbar machen!!</t>
+  </si>
+  <si>
+    <t>Verbesserungsvorschlag für die SBB App: Bei einer Fahrplanabfrage wird immer nur eine Umsteigmöglichkeiten angegeben. Beispiel: Rotkreuz - Wollishofen wird Umsteigen in Thalwil angegeben. In Zug oder</t>
+  </si>
+  <si>
+    <t>eine einfache möglichkeit, die online gekauften Produkte wieder zu annulieren.!!!!</t>
+  </si>
+  <si>
+    <t>Die SBB-App ist weniger benutzerfreundlich als zuvor.</t>
+  </si>
+  <si>
+    <t>Es ist nicht verständlich, dass es bei der SBB bis heute nicht möglich ist, internationale Bahnbilette über die App zu kaufen??? funktioniert z.B bei der ÖBB wunderbar auch ab Zürich. Auf klassischen</t>
+  </si>
+  <si>
+    <t>Dass Freizeit Angebote auch in der App gelöst werden können.</t>
+  </si>
+  <si>
+    <t>leider konnten wir mit den onlineticet von tüebsee nach engelberg ( und auch an morgen in der gegenrichtung) nicht direkt duch das drehkreuz gehen da unser billet nicht kompartibel war. da hat uns ein netter angestellter mit einen billet ausgeholfen . sonst hätten wir wieder zum eingang zurück gemusst um unser onlineticet zu einem papierticet zu wechseln. dasselbe ist auch bei den pilatusbahnen das problem auch dort kann ich ein ticet pilatus- luzern mit der sbbb-app lösen, aber ich kommt nicht aus den drehkreuz beim ausgang raus. wäre schön wenn sie dieses problem lösen könnten!</t>
+  </si>
+  <si>
+    <t>Ich löse meistens mein Ticket auf der Mobile APP. Dabei stelle ich fest, dass ich oft im Bahnhof Luzern keine Internet-Verbindung habe. Wenn ich nun den Zug erreichen will, passiert es mir des öftern, dass ich mein Ticket nicht ordnungsgemäss vor Antritt der Fahrt lösen kann. Sobald der Zug dann abfährt, auf Höhe Allmend/Messe, erhalte ich Internetzugang und ich kann mein Ticket lösen. Das verunsichert mich, denn sollte je eine Kontrolle genau in diesem Teilbereich von 3 Minuten Fahrt erfolgen, müsste ich mit einer Busse rechnen. Ich denke, eine gute Internetverbindung auf den Bahnhöfen ist ein absolutes MUSS!</t>
+  </si>
+  <si>
+    <t>Ich bin allerdings mit einem Fahrklassenwechsel 1. kl. gefahren. Das kkonnte ich bei der Beferagung nirgends angeben. In der 2. Kl. wären die Antworten wohl anders.</t>
+  </si>
+  <si>
+    <t>Ich wollte ca 2 Wochen vor der Reise ein Sparbillet von Aarau nach Zermatt lösen und retour ebenfalls, war über mehrere Tage nicht möglich, konnte immer nur nach und von Täsch lösen! Darum die Einzelfahrt Zermatt-Täsch!</t>
+  </si>
+  <si>
+    <t>Es ist schwierig mit dem sbb App Karten für Kollegen ohne App zu kaufen.</t>
+  </si>
+  <si>
+    <t>Auf der Rückfahrt um 16:35 von Etziken wurde falsche Informationen auf der App vermittelt! Es gäbe Verspätungen, obeohl das nicht stimmte</t>
+  </si>
+  <si>
+    <t>Bei Reisen mit Easy Ride Begleitperson zum Beispiel Ehepartner ermöglichen!</t>
+  </si>
+  <si>
+    <t>Ich habe mich geärgert, dass meine Gutscheine für das GA Ende 2018 abgelaufen waren und ich bei meiner Fahrt die Gutscheine in den Kübel werfen konnte, anstatt diese brauchen zu können. Das war eine ganz schlechte Idee, die Gutscheine zeitlich zu begrenzen.</t>
+  </si>
+  <si>
+    <t>Ich war mit dem Velo unterwegs, konnte aber auf der APP das Ticket für das Velo nicht finden. Habe dann für das Velo über das ZVV APP das Velo-Ticket gelöst. Am gleichen Tag war ich (mit Velo) mit der Bahn unterwegs, ab Urdorf, ca. 08:40 Richtung Zug. Gemäss Fahrplan war die Velomitnahme nicht erlaubt. Der Zug war leer. Zwei Wochen früher, dasselbe. Veloverbot - leerer Zug.</t>
+  </si>
+  <si>
+    <t>Ich bekam im Bahnhof Bolligen keinen Kontakt zu meinem SBB-App und konnte das Billett erst im Zug lösen (auch per App).</t>
+  </si>
+  <si>
+    <t>Die Haltestellen von Bussen sollte. Auf einer Karte in der App sichtbar sein. Tageskarten sollten im Nachhinein mit beliebigen Zonen ergänzt werden können.</t>
+  </si>
+  <si>
+    <t>Auf der Hinfahrt verpasste ich den Anschluss in Visp. Da ich ein Sparticket gelöst hatte - zeigte an das Ticket sei für die letzte Teilstrecke nicht mehr gültig - das nervt dann zusätzlich. Entgegen der Angabe in. Der App war der Anschlusszug bereits abgefahren..,.</t>
+  </si>
+  <si>
+    <t>Mehr Transparenz bei den Preisen; Busverbindungen (Zonen an Abfahrts-/Ankuftsort) in Preis inkludieren. Mobile-App: Verbindung fixieren/markieren können (zB wenn EasyRide-Billet gezeigt wird, muss danach Verbindung wieder neu eingegeben werden)</t>
+  </si>
+  <si>
+    <t>Zug vom BH Zürich nach Zug ist wegen Bauarbeiten ausgefallen, keine Infos im Zug...nur dass keine Infos vorliegen. Jetz der wirkliche Skandal! An der Schaltertafel stand informieren sie sich über das App!!!Hallo?!!? Es haben nicht alle das App!!!! Für das wäre wohl so eine Infotafel!!</t>
+  </si>
+  <si>
+    <t>Ich reise mit einem grossen Kinderwagen für Zwillinge. Es wäre sehr hilfreich, wenn ich im SBB App einstellen könnte, dass ich nur Verbindungen sehen möchte, die mit Kinderwagen machbar sind (z.B. keinen Umstieg an einer Bushaltestelle/Tram mit Treppen). Es wäre auch schön, wenn die Züge mehr Fahrrad/Kinderwagen Wagen hätten und die Gleise markiert wären, wo die Fahrrad/Kinderwagen Wagen halten. Vielen Dank!</t>
+  </si>
+  <si>
+    <t>Ich möchte, dass möglichst alle Reisen mit den SBB so perfekt funktionieren wie diese Reise. Wie alle Reisenden habe ich unerträglich lange unter den alten und schlechten Zuggarnituren gelitten, weil sich die Lieferung die bestellten Garnituren wieder und wieder verspäteten.</t>
+  </si>
+  <si>
+    <t>Es hat alles zu meiner vollsten Zufriedenheit geklappt.</t>
+  </si>
+  <si>
+    <t>Nein, war alles ok.</t>
+  </si>
+  <si>
+    <t>Einige Zugführer sind humorvoll..., das ist sicher ein Trumpf im Umgang mit den freundlichen Klienten =&gt; so du mir wie ich dir... ;-)</t>
+  </si>
+  <si>
+    <t>Sie könnten pünktlich abfahren und vor allem pünktlich ankommen. Abgesehen von dieser Strecke bin ich mit der SBB aber meist sehr zufrieden. Die Anbindung von Zug und Bus in Liestal ist einfach sehr unglücklich.</t>
   </si>
   <si>
     <t>Im Allgemeinen gibt es extrem wenig zu beklagen. Ich sehr zufrieden mit den Leistungen der SBB und nutze SBB fast täglich. Zu Stosszeiten, insbesondere am Morgen, sind die Züge sehr stark frequentiert. Eine Entspannung könnte wohl nur ein dichterer Takt zu Stosszeiten bringen.</t>
   </si>
   <si>
-    <t>Sicherheit (insbesondere am Abend und in der Nacht), Sauberkeit und das Verhalten der Passagiere sind ein zunehmendes Problem beim Bahnfahren in der Schweiz. Allerdings muss man dabei klar sagen, dass die Ursachen dafür nicht bei den SBB liegen. Im Vergleich zum umliegenden Ausland macht die SBB einen guten Job, im Umgang mit diesen Herausforderungen. Im Vergleich zu Ländern wie Singapore oder Japan ist die SBB in diesen Bereichen über die Jahre klar zurückgefallen. Persönlich würde ich es sehr begrüssen, wenn in den Zügen ab und zu Patrouillen zum Einsatz kämen, welche nicht nur auf die Sicherheit sondern auch anständiges Verhalten der Passagiere achten würden. Damit würde dann auch die Sauberkeit wieder verbessert.</t>
-  </si>
-  <si>
-    <t>Gewisse Fahrten sind überlastet und daher die Platzauswahl ganz limitiert.</t>
-  </si>
-  <si>
-    <t>Anzeigetafel auf Perron mit Zugskomposition. Die Wechsel der Wagenreihenfolge mit Klasse und Spezialwagen ist zu schnell.</t>
-  </si>
-  <si>
-    <t>mehr Sitzplätze</t>
-  </si>
-  <si>
-    <t>Es war ein sehr sonniger warmer Tag. Es wäre vielleicht schön, wenn die Sitzbank, in Kerzers unter dem Dach, im Schatten, stehen würde. Aber es ist ja schon schön dass eine Bank vorhanden ist. Ich habe 3 Bandscheibenvorfälle und kann nicht lange stehen, wir reden von Minuten, nicht Stunden. Und ich finde es wirklich sehr schade dass man die Sitzbänke, Lenzburg, durch so Stehdinger ersetzt hat. Aber sonst war ich zufrieden mit der SBB.</t>
-  </si>
-  <si>
-    <t>In Stosszeiten mehr Wagons zur Verfügung zu stellen. Denn es ist eine Zumutung wenn man mit dem Rücken an die Einstiegstüre gedrückt wird weil es von Bümpliz nord nach Bern in jeden Abteil keinen Platz mehr hat. Und ich spreche hier nicht von Sitzplätzen sondern dass bis ans Ende jedes Wagons die Gänge von Vorne bis Hinten vollgequetscht sind und man trotzdem keinen Platz mehr zum Einsteigen hat und den nächsten Zug abwarten muss. Für das Geld der Zugfahrt darf man erwarten dass man immerhin einen Stehplatz hat ohne von allen Seiten von anderen Fahrgästen zusammengequetscht zu werden!</t>
-  </si>
-  <si>
-    <t>Auf der Strecke Zürich - Rapperswil-Jona, Rapperswil Glarus mehr Sitzplätze. Das wäre erwünscht. Danke</t>
-  </si>
-  <si>
-    <t>Während Hauptverkehrszeiten mehr Züge einsetzen, um Sitzplatzangebote zu sichern.</t>
-  </si>
-  <si>
-    <t>- Den ICN so schnell wie möglich ausmustern. Dessen Abroll-, Fahr- und Federungskomfort ist sehr schlecht. - Allgemein und v.a. zu Stosszeiten mehr Doppelstock-IC und die alten Kompositionen mit einer Zuglokomotive brauchen. Diese sind viel angenehmer als die ICN. - Die unternehmenspolitische Kommunikation verbessern: Der Durchschnittpendler weiss nicht wann die neuen Dosto voll eingesetzt werden oder warum genau sie sich verspäten. Dafür braucht es keine teuren Marketingaktionen. Einfache Plakate mit ein paar Bulletpoints sind schon mehr als genug.</t>
-  </si>
-  <si>
-    <t>Alles auf dieser Fahrt war kein Problem. Aber ich wollte den Zug 10:06 nach Saunen nehmen. Aber die schnellen Linien sind immer überfüllt mit Touristen. Es kann nicht sein, dass man den ganzen Zug nur für die Touristen reserviert. Es ist zwingend notwendig, dass auch mindestens 1-2 Waggons für spontane Reisende ohne Reservation leer sein sollten.</t>
-  </si>
-  <si>
-    <t>Da ich gehbehindert bin und erst 2 Rückenoperationen hatte, macht mir das Einsteigen sehr Mühe. Die Tritte sind sehr hoch und vom Perron zu weit entfernt. Wegen Corona war ein Shuttle bis Klosters eingesetzt, das war eine neue Komposition. Stylisch sdchön, aber sehr sehr schlecht zum Einsteigen. Da sind die Tritte noch höher, war es für mich praktisch unmöglich. Deshalb mache ich ja Klassenwechsel, denn in der 2. Klasse sind für mich die Sitze viel zu hart im Moment.</t>
-  </si>
-  <si>
-    <t>Ruhewagen auch in der zweiten Klasse</t>
-  </si>
-  <si>
-    <t>Es sollten mehr Doppelstockzüge eingesetzt werden um die Platzzahl massiv zu vergrössern. Die gilt speziell in den Hauptverkehrszeiten.</t>
-  </si>
-  <si>
-    <t>Günstigere Ticket's für AHV-Rentner! Und/oder günstigere Tageskarten für Alle! Es gibt dadurch sicher auch mehr Leute, die mit der Bahn verreisen werden. Die meistens 4 aneinander gereihten Wagon's der 1.Klasse am Beginn des Perron's von der Bahnhofshalle her, z.B. in Zürich, auseinandernehmen und zwischendrin auch mal einen oder zwei- 2.Klasse Wagon platzieren. Leute, die nicht gut zu Fuss sind, werden es Ihnen danken. Nicht nur auf die Bequemlichkeit der 1.Klasse Passagiere Rücksicht nehmen. Die meisten Passagiere sind ja die in der zweiten Klasse und bezahlen eigentlich das meiste an die Infrastruktur - oder? Vielen Dank, dass ich hier meine Meinung sagen durfte.</t>
-  </si>
-  <si>
-    <t>Im allgemeinen, falls möglich mehr Schnellzüge zu Stosszeiten.</t>
-  </si>
-  <si>
-    <t>Mehr Zugwaggons ins den Stosszeiten - häufig kein Sitzplatz vorhanden. Vergnünstigungen, wenn keine Sitzoption zur Verfügung steht?</t>
-  </si>
-  <si>
-    <t>Weniger 1. klasse Wagen ist eigentlich überholt die leer 2. voll</t>
-  </si>
-  <si>
-    <t>Das Platzangebot in den neuen Dosto-Zügen ist zu Stosszeiten nach wie vor ungenügend! Die 2. Klasse war bereits am Flughafen Zürich übervoll. Dies war der Grund warum ich mit einem Klassenwechsel in die 1. Klasse ausweichen musste, um überhaupt einen Sitzplatz zu haben. Dies ist übrigens im IC13 um 17:23 ab Flughafen Zürich immer der Fall.</t>
-  </si>
-  <si>
-    <t>Die 2. Klasse ist meistens überfüllt und die Leute müssen während der Zugfahrt stehen oder auf dem Boden sitzen. Dafür herrscht in der 1. Klasse gähnende Leere. Es sollten viel mehr Waggons für die 2. Klasse bereit stehen, denn nicht jeder kann sich ein 1.Klasse-Ticket leisten.</t>
-  </si>
-  <si>
-    <t>Generell ist das Platzangebot mehr und mehr, nicht mehr nur zu Berufsverkehr - Zeiten, zu knapp. Man kann wohl das Rollmaterial heute flexibler planen als früher und nutzt dies, um in Randzeiten Wagen - und damit Energiekosten - zu sparen. Und erzeugt damit eine Viehtransporter Atmosphäre, die nicht dazu beiträgt, dass man auf öffentliche Verkehrsmittel wechselt.</t>
-  </si>
-  <si>
-    <t>Mehr Sitzplätze</t>
-  </si>
-  <si>
-    <t>Platzangebot auf der Hinreise Basel - Olten am Morgen 2.Klasse sehr knapp !</t>
-  </si>
-  <si>
-    <t>Mehr Zugwaggons</t>
-  </si>
-  <si>
-    <t>Es wäre schön, wenn es mehr 2. Klasse Wagen hätte da die 1. Klasse meistens leer ist.</t>
-  </si>
-  <si>
-    <t>Sitze sind auf dieser Strecke selbst in der ersten Klasse doch ordentlich durchgesessen.</t>
-  </si>
-  <si>
-    <t>Mehr Wagons einsetzen für die 2. Klasse-Reisenden.</t>
-  </si>
-  <si>
-    <t>Verhindern dass die Züge überfüllt und dadurch Verspätung bekommt.</t>
-  </si>
-  <si>
-    <t>Es gibt nach wie vor eine ungünstige Verteilung von 1. Klass- und 2. Klasswagen. Während zu gewissen Zeiten die 2. Klasse hoffnungslos überfüllt snd, herrschen zum gleichen Zeitpunkt un der 1. Klasse</t>
-  </si>
-  <si>
-    <t>Mehr 2 Klasse Wagen zur Verfügung stellen. Funktionierende Klimaanlagen. Oder gar die 1. Klasse auflösen (da viele Plätze meist unbesetzt sind und in der 2. Klasse viele Leute stehen müssen, obwohl sie für ihr Ticket bezahlt haben).</t>
-  </si>
-  <si>
-    <t>Was den Zug betrifft, mehr Wagen an die Lok hängen? Er ist oft recht voll!</t>
-  </si>
-  <si>
-    <t>Mehr Veloabstellplätze</t>
-  </si>
-  <si>
-    <t>Ich schätze Stille-Wagen. Gerne auch in der 2. Klasse.</t>
-  </si>
-  <si>
-    <t>Evtl. Die Züge immer mit grossen Tischen zum Arbeiten ausstatten.</t>
-  </si>
-  <si>
-    <t>Bei zu erwartenden vollen Zügen mehr Waggons einsetzen.</t>
-  </si>
-  <si>
-    <t>In Reisezeiten mit grossem Sitzplatzbedarf mehr Sitzplätzen anbieten bzw. mehr Wagen pro Zug einsetzen.</t>
-  </si>
-  <si>
-    <t>Ich bin mit Ihrem Angebot immer sehr zufrieden. Die Sitze im Thurbo sind für die Gesamtfahrt nach Konstanz ziemlich unbequem - das ist das Einzige, das mir einfällt. Danke für Ihre Arbeit.</t>
-  </si>
-  <si>
-    <t>schön wäre es wenn im 2Kl Wagen auch die neuen Wagons benutzt werden. Die Abteile der 2 Kl dürften bessere Arbeitsplätze ausgestattet werden. Im Vergleich zur ersten Klasse ist es unbequem zum arbeiten.</t>
-  </si>
-  <si>
-    <t>Bei der ungeplanten Rückfahrt am Mo Morgen war der Zug Lenzburg - Olten (bis Aarau) übervoll (IR2256), dh. die Reisenden füllten die ganzen Gänge.</t>
+    <t>Ich bin sehr zufrieden - das Velo lasse ich (leider) vermehrt daheim und verlade es nicht mehr für Freizeitausflüge (Stress, unbekannte Aufhängung im Voraus). Eine gute Lösung wäre toll. - ich schätze die Aktion des Freizeit GAs und habe mir eins gekauft. - manchmal wünsche ich mir einen HöflichkeitsCodex bezüglich Telefonieren im Zug. Auf der abgefragten Strecke Olten-Bern hielt ein Mann eine online Konferenz ab in unhöflich lautem Ton, die ganze Reise über. Manchmal motze ich, manchmal nicht.</t>
+  </si>
+  <si>
+    <t>Die Reise war sehr angenehm. Von Visp nach Zermatt sehr viele Leute</t>
+  </si>
+  <si>
+    <t>Fahre seit bald 50 Jahren mit den ÖVs und bin sehr zufrieden DANKE !!!</t>
+  </si>
+  <si>
+    <t>Ich bin sehr dankbar für den zuverlässigen öv in der Schweiz</t>
+  </si>
+  <si>
+    <t>Eigenlich bin ich zufrieden mit dem Angebot der SBB. Die aktuelle Situation mit den defekten Klimaanlagen ist an heissen Tagen unerträglich, so dass ich auf das Auto oder auf die Zugstrecke vie Sursee ausweiche.</t>
+  </si>
+  <si>
+    <t>Weniger Zugausfälle wären ganz nett...</t>
+  </si>
+  <si>
+    <t>Soweit alles OK</t>
+  </si>
+  <si>
+    <t>Bin sehr zufrieden, obwohl eine direkte Verbindung von Burgdorf nach Basel für mich schon sehr fein wäre????</t>
+  </si>
+  <si>
+    <t>SOB finde ich super, vor allem auch das kompetente, freundliche Personal</t>
+  </si>
+  <si>
+    <t>Es tut mir sehr leid, dass SBB sich mit der Bombardier- Bestellung so in Not geraten ist.es wird uns sehr, sehr teuer zu stehen kommen und CFf erleidet einen enormen Vertrauensverlust und Image Schaden.</t>
+  </si>
+  <si>
+    <t>Neuere Infrastruktur</t>
+  </si>
+  <si>
+    <t>Warum müssen die sehr, sehr grossen Kinderwagen der heutigen Zeit, die alles im Zug versperren kein Ticket kaufen? Und ich mit den Velo schon!!!</t>
+  </si>
+  <si>
+    <t>Für Moment ist super</t>
+  </si>
+  <si>
+    <t>Gesamtes SBB Angebot in den heissen Tagen ein Desaster.</t>
+  </si>
+  <si>
+    <t>Sehr gute service einfach und nicht Zeit verlieren</t>
+  </si>
+  <si>
+    <t>Ich bin in den letzten Monate nur mit wenigen Ausnahmen pünktlich angekommen. Diese Strecke ist leider nicht die Paradedisziplin der SBB :(. Bei einer Fahrt blieben wir sogar mehrere Stunden blockiert</t>
   </si>
   <si>
     <t>Die SBB könnten mehr Veloabstellplätze zur Verfügung stellen.</t>
   </si>
   <si>
-    <t>Genügend Sitzplätze auch bei Stosszeiten, ist aber begreiflicherweise schwierig zu realisieren...</t>
-  </si>
-  <si>
-    <t>Ich würde mich freuen wenn das 1. Klasse abteil im unteren Teil von den Neueren Zügen ein ganzes 1.Klasse Abteil wäre und die Türen breiter sind so das man auch mit einem Breiteren Wägeli in die 1. Klasse Sitzen kann.</t>
-  </si>
-  <si>
-    <t>Das einzige was ich „doof„ fand war, dass ich die Juniorenkarten die ich am Vortag kaufte Zuhause liegen liess. Und die Konsequenz war natürlich, dass ich je Fr. 5.- nachbezahlen musste. Die Kinder lernten jedoch dabei, dass auch ich die Konsequenzen tragen muss, wenn ich mich nicht richtig verhalte. ????</t>
-  </si>
-  <si>
-    <t>Reservationssystem - Anzeigen sind oft fehlerhaft, zeigen FREI und dann kommt trotzdem jemand mit einer gültigen Reservation</t>
-  </si>
-  <si>
-    <t>Früher habe ich ab und zu spontan mein Velo mitgenommen, mit Voranmeldung zu mühsam.</t>
-  </si>
-  <si>
-    <t>Mir ist aufgefallen, als ich mit dem Velo die SBB nutzte, dass der Parkplatz für die Velo im Regio sehr eng berechnet ist und teilweise von Personen mit grossen Koffern genutzt wird. Klar wird nicht auf jeder Fahrt der Veloplatz gebraucht, aber damals war es einfach viel zu eng... Eventuell sollte der Platz neu berrechnet werden...ich fuhr von Lugano nach Zürich HB...</t>
-  </si>
-  <si>
-    <t>Es ist auch in der 1 Klasse sehr wenig Platz für Gepäck vorhanden. Besonders bei Fahrten zum Flughafen ist das nicht ideal.</t>
-  </si>
-  <si>
-    <t>- Mehr und einfachere Verlademöglichkeiten von Fahrräder. Notfalls mit altem Gepäckwagen, dafür hat es ausreichend Platz. - Das verladen des Fahrrads meiner Partnerin war etwas umständlich. Zuerst bekam sie keine Platz Nummer, danach war die Türe verrigelt, bei der nächsten Station musste sie das Fahrrad nochmals in den richtigen Wagen umplatzieren und am Schluss half ihr niemand beim ausladen des Fahrrads. Neben meinem Fahrrad hätte es auf der ganzen Fahrt noch einen freien Platz gehabt. Ungebrauchte Platzreservationen sollten zeitnah, kostenlos annulliert werden können. -Zum Glück hat bei mir alles tip top funktioniert. Danke.</t>
-  </si>
-  <si>
-    <t>Mehr platz im Zug</t>
-  </si>
-  <si>
-    <t>Kundenunfreundliche Perronzugänge zu Perron 2 und 3. Nur Treppen zu diesen beiden wichtigsten Perrons und einen alten sehr langsamen kleinen Lift. Umsteigezeiten von SOB zu SBB für Züge nach Zürich oder Chur sind knapp. Mit Koffern oder sonst viel Gepäck jedesmal ein Stress und sehr mühsam. Dazu sehr schmale Aufgänge für soviele Leute.</t>
-  </si>
-  <si>
-    <t>Es war zu wenig Platz. Mehr Wagons</t>
-  </si>
-  <si>
-    <t>Für langjährige Velo Reise Kunden, wurde es leider umständlicher spontan loszuziehen. Ich begreife warum, aber die Spontanität vermisse ich beim Velo Zug Reisen</t>
-  </si>
-  <si>
-    <t>In Engelberg ist der Anschluss Richtung Fürenalp und Brunni schlecht. Ich sass mal im Zug, als eine Reinigungskraft (ausländischer Herr), der die Abfallkörbe im Abteil leerte, so auch bei mir. Er trug die Maske am Kinn! Manchmal braucht es in Stosszeiten mehr Wagen, um alle Reisende sitzend und bequem zu befördern. Die Abstände in den Abteilen sind oft eng, sodass man den Rucksack nicht bequem zwischen den Beinen am Boden halten kann, ohne den Reisenden vis à vis zu stören. Die Ablagen sind mir oft zu hoch, sodass ich das Gepäck nicht dort ablegen kann, und somit Platz am Boden brauche. Es wäre mir auch zu schwer, das Gepäck hoch zu stemmen. Es brauchte mehr Platz dafür im Wagen und im Abteil.</t>
-  </si>
-  <si>
-    <t>Es ist sehr wenig Platz für Velos, speziell diese Verbindung und diese Uhrzeit, und Schwierig dass Kinderwagen und Velos in den selben Wagon sollten, Mir ist bewusst dass es auch immer sehr viele Velos sind</t>
-  </si>
-  <si>
-    <t>besseres platz verhältnis für reisegepäck. wahr ungenügend. nicht angenehm wenn man mit reisegepäck unterwegs ist. sehr eng dan.</t>
-  </si>
-  <si>
-    <t>Die Rückreise war wesentlich unangenehmer. Zu viele Leute auf engem Raum, keine Sitzplätze, kein WC.</t>
-  </si>
-  <si>
-    <t>Wenig Platz für Gepäck (Skitourist), manchmal auch wenig Sitzolätze.</t>
-  </si>
-  <si>
-    <t>Trotz Veloplatzreservierung für zwei Fahrräder, hatte es nur Platz für ein Fahrrad. Danach wurde ich von der Zugbegleiterin angewiesen, dass mein Fahrrad nicht im Eingangsbereich stehen könne. Falls es Platzreservationen für Velos braucht, sollten die Zugbegleiter auch dafür sorgen, dass alle mit einer Reservation Platz finden. Jene ohne Reservation, müssten bis zur letzten Minute warten.</t>
-  </si>
-  <si>
-    <t>Bei Doppelstockzügen klarere Zuweisung von genügend Platz für grössere Gepäckstücke. Man hat den Eindruck, dass das bei jedem Wagen anders ist Man kann nicht damit rechnen, dass an jedem Eingang genügend Raum ist, die grossen Gepäckstücke zu deponieren, die nicht in die kleinen Ablagen in den Doppelstockwagen passen.</t>
-  </si>
-  <si>
-    <t>Wir waren mit Fahrrädern unterwegs und das ist leider zwischenzeitlich ein Problem, vor allem bei den IC-Zügen. Die verfügbaren Plätze sind meiner Meinung nach viel zu wenig.</t>
-  </si>
-  <si>
-    <t>Bitte bei Feriensamstagen Anreise und Abreise mehr Wagen. Es hat einfach viel zuwenig Platz! Postauto 2 Stück für die gleiche Strecke! Unter diesen Umständen fahren die Feriengäste nicht mehr mit ÖV sondern mit dem Auto</t>
-  </si>
-  <si>
-    <t>Wir waren mit Fahrrädern unterwegs mit entsprechender Reservation. Das Verstauen der Fahrräder im IC Zug war umständlich.</t>
-  </si>
-  <si>
-    <t>Der Fahrradständer am Bahnhof Oberbuchsiten muss dringend modernisiert werden!</t>
-  </si>
-  <si>
-    <t>kein platz für bike auf der strecke nach brig rückreise mit bike bewertung eine 1 weil platzproblem</t>
-  </si>
-  <si>
-    <t>Steckdosen, weil jeder Mensch heute entweder Computer, Handy oder ein anderes elektronisches Gerät benutzt und mehr Stauraum für Gepäck, weil die meisten Menschen ins Bündnerland nun mal mit dem einen oder anderen Gepäckstück, Velo, Skiern o.ä. reisen und das zu jeder Jahreszeit.</t>
-  </si>
-  <si>
-    <t>Der Preis für Hin- und Rückreise sollte generell günstiger sein als zwei Einzelfahrten.</t>
-  </si>
-  <si>
-    <t>Mehr Sparbillette</t>
-  </si>
-  <si>
-    <t>Ja, die Preise senken, es ist einfach zu teuer!</t>
-  </si>
-  <si>
-    <t>mehr Sparbillette anbieten</t>
-  </si>
-  <si>
-    <t>Der Preis war sehr hoch. Ohne 1/2 Abo könnte man sich eine solche Reise nicht ermöglichen.</t>
-  </si>
-  <si>
-    <t>Zugtickets günstiger machen. Wenn man ein Auto hat ist das Zugfahren im Verhältnis sehr teuer.</t>
-  </si>
-  <si>
-    <t>Ich finde, in der Schweiz sind wir mit dem ÖV ausgezeichnet bedient. Wahrscheinlich ist das Angebot im Rahmen der finanziellen Möglichkeiten kaum noch verbesserbar. Auch das Schienennetz ist wahrscheinlich an der obern Grenze der Belastbarkeit. Ich meine, dass in einer Langzeitperspektive die Strasse weniger und der ÖV mehr subventioniert werden müsste.</t>
-  </si>
-  <si>
-    <t>- Preise / Kosten senken, von GA und Billetts - ist viel zu teuer.</t>
-  </si>
-  <si>
-    <t>Das Swype Modell finde ich super, manchmal zahlt man aber mehr als nötig, wenn vergessen wird auszuloggen.</t>
-  </si>
-  <si>
-    <t>Preise senken :)</t>
-  </si>
-  <si>
-    <t>Der Preis scheint mir zu hoch nach Preis/Leistung und hatte nicht einmal ein Sitz frei und hatte eine Koffer dabei.</t>
-  </si>
-  <si>
-    <t>Billete sind teuer, wenn man kein Sparticket zur Verfügung hat...</t>
-  </si>
-  <si>
-    <t>Ich bin sehr dankbar für den zuverlässigen öv in der Schweiz</t>
-  </si>
-  <si>
-    <t>Preise senken</t>
-  </si>
-  <si>
-    <t>Zu teuer</t>
-  </si>
-  <si>
-    <t>Günstigere Tarife für Pendler anbieten.</t>
-  </si>
-  <si>
-    <t>Für den Preis von CHF 90.- für die erste Klasse erwarte ich ein viel besseres Platzangebot.</t>
+    <t>Ich bin nun gespannt, wie Sie auf mein Feedback reagieren. Die Leistung entsprach nicht dem Preis.</t>
+  </si>
+  <si>
+    <t>Herzliche Gratulation der SBB!</t>
+  </si>
+  <si>
+    <t>Habe ich keine ????</t>
+  </si>
+  <si>
+    <t>Ich finde es eine Frechheit das sie meine anonymisierren Daten, hier für eine Umfrage nutzen. Weniger 1 Klasswagen . 3 1 Klasswagen zu 5 2 Klasswagen, gahts nu.</t>
+  </si>
+  <si>
+    <t>Siehe Hinweis Beschilderung</t>
+  </si>
+  <si>
+    <t>Kommentar bereits gegeben.</t>
+  </si>
+  <si>
+    <t>Siehe vorherigen Kommentar</t>
+  </si>
+  <si>
+    <t>klimaanlage zu kalt</t>
+  </si>
+  <si>
+    <t>Umsteigezeit im Bhf Olten ist je nach Verbindung von Zofingen nach Solothurn sehr lange (20min).Im Winter ist es kalt und es gibt keine gute warme Wartezone.Die Wartehäuschen sind zwar vorhanden,aber dort stinkt es oft und/oder sie sind überfüllt.</t>
+  </si>
+  <si>
+    <t>An heissen Tagen sollte die Klimaanlage funktionieren und in Betrieb sein. Auf alle Fälle bei längeren Zugsreisen.</t>
+  </si>
+  <si>
+    <t>Im Zug von Luzern nach Zürich war es etwas kühl.</t>
+  </si>
+  <si>
+    <t>Man hat seit einigen Jahren den Eindruck, dass überall, gerade auch kleinere Dinge gerade noch so funktionieren (Toiletten, WC, Sitzplatzangebot, dauernde Unklarheiten beim Fahrplan, weil Verspätungen/Ausfälle usw. man hat auch den Eindruck, dass auch das Personal nicht mehr so genau weiss, was eigentlich gilt resp. auch diese werden mit all diesen Änderungen überrumpelt. Das Personal macht aber einen guten Job. Mir scheint, dass es die Klimaanlagen diesen Sommer eher besser eingestellt waren. Das 'Kühlschrankgefühl' hatte ich dieses Jahr etwas weniger. Waren evt. die Differenzen zu den Aussentemperaturen geringer?</t>
+  </si>
+  <si>
+    <t>KLIMAANLAGE !!!!!!!!!!! VIEL ZU KALT . ich werde wenn möglich nur noch im Winter reisen. Wollte eigentlich ein GA kaufen, aber wenn ich immer frieren muss, NEIN DANKE. Bitte sparen sie doch Energie !!! 5.6. vor 5 UHr morgens Klimaanlage soooo kalt und so geblasen !!! um 5 Uhr ist es noch nicht heiss draussen. dann in Basel mit der Deutschen Bahn nach Ostfriesland. WUNDERBAR !!! keine kalte Luft !! nicht zu warm, genau angenehm. Wenn möglich wähle ich später ab Zürich DEUTSCHE BAHN oder TREN ITALIA. SBB weiss mit der Klimaanlage nicht umzugehen. Es frieren viele Leute, nicht nur ich</t>
+  </si>
+  <si>
+    <t>Im Sommer wäre eine Limaanlage angebracht. Zumindest in der 1. Klasse.</t>
+  </si>
+  <si>
+    <t>Bitte etwas weniger heizen, in der S29 ist es immer sehr warm. Für die Sauna geh ich gerne woanders hin ;-)</t>
+  </si>
+  <si>
+    <t>wahr zu kalt im zug, meine partnerin und ich hatten kalt. Klimaanlage geht auch wenn es kühler wird am abend.</t>
+  </si>
+  <si>
+    <t>Klima regulieren!</t>
+  </si>
+  <si>
+    <t>Klimaanlage war viel zu kalt, ansonsten hat alles super geklappt</t>
+  </si>
+  <si>
+    <t>Die Klimaanlage war nicht eingeschaltet. Es war sehr heiß.</t>
+  </si>
+  <si>
+    <t>Für den nassen Schirm ist kein guter Ort im Zug vorgesehen. Das ist ein bisschen ärgerlich.</t>
+  </si>
+  <si>
+    <t>-sicherstellen dass die Klimaanlagen in den Zügen funktionieren</t>
+  </si>
+  <si>
+    <t>Am Tag fühle ich mich auf den SBB Zugstrecken und Banhöfen sicher. Nicht aber abends, speziell Freitag/Samstag nicht. Dann ist die Temperatur in den Zügen immer ein leidiges Thema, in der Regel ist die Lüftung viel zu stark respektive zu kalt!!!! Ausserdem sind die Züge mit den Treppen ein Horror, wenn man mit Gepäck reist. Es ist mir unverständlich, dass man bspw. von und nach ZH Flughafen solche Züge einsetzt. Und das Verstauen von Gepäck ist auch problematisch man muss es meistens zum Sitz nehmen und versperrt so Sitzplätze.</t>
+  </si>
+  <si>
+    <t>Die Lüftung war zu stark eingestellt. Es wäre optimal, diese etwas zu reduzieren, v.a. wenn die Temperaturen im Zug gedrosselt sind.</t>
+  </si>
+  <si>
+    <t>Halbstündigen Verbindung zwischen Luzern und Bern und Anschluss S9 in Emmenbrücke nach S1 Sursee und nicht in Gersag vorsehen. Umsteigen nicht KunDenfreundlich in Gersag. 2 von 5 Mal habe ich den Anschluss verpasst. 1Stunde länger reisen als Konsequenz</t>
+  </si>
+  <si>
+    <t>Ich war schon im Zug von Mailand her. Schön wäre es, wenn bereits vor Lugano die Durchsage käme, dass in Arth-Goldau Anschluss bestehe.</t>
+  </si>
+  <si>
+    <t>Sehr langes warten auf den Anschluss des Busses gehe darum zu Fuss ins Dorf aber sonst alles gut.</t>
+  </si>
+  <si>
+    <t>Gerne wieder direkte Verbindungen basel St. Gallen</t>
+  </si>
+  <si>
+    <t>Die Fahrten zwischen Locarno und ZHB könnten dazwischen auch mal ohne Umsteigen in Bellinzona, sprich durchgehend sein, 20min warten ist vor einfach allem im Winter nicht sehr schön. Wir fahren sogar von Wollerau via ZHB nach Locarno/ Ascona, da wir 20. min mit der SOB in Bieberbrugg auf den Anschluss nach Goldau warten müssen!</t>
+  </si>
+  <si>
+    <t>Verbindung könnte besser und schneller sein, wenn der Anschluss in der Hardbrücke klappen würde wie früher! Fahrzeit würde sich um 30 min. verkürzen! Danke</t>
+  </si>
+  <si>
+    <t>Teure Verbindungen für regelmässige Pendler</t>
+  </si>
+  <si>
+    <t>Die Ausführungen am HB Bern wonach kein Ersatzbus fährt am SA, waren verwirrend. Zwar war wohl direkter Bus ab Zollikofen bis Jegendtorf gemeint, aber ich verstand, dass am SA gar kein Ersatz...</t>
+  </si>
+  <si>
+    <t>Sehr häufig sind die WC s defekt oder unsauber auf dieser Strecke Die Umsteigezeit vom Zug aus Locarno auf den Zug nach Zürich ist zu gross und zwar in beide Richtungen. Der Zeitgewinn einer Reise nach Locarno, der durch den neunen Gotthardtunnel erreicht wird, geht durch die unnötige Wartezeit in Bellinzona wieder verloren. Ich verstehe das inbesondere nicht, da die Zuge in Locarno ohne Weiters 10 Minuten später und der nach Locarno 10 Minuten früher abfahren könnte. Der ganze Plan könnte um 10 Minuten verschoben werden, was ja bei einer Linie ohne weiteren Anschlüsse gut möglich ist.</t>
+  </si>
+  <si>
+    <t>Direkte Busfahrten nach 7.30 frequenter anbieten. Der Bis 350 um 7.30 Ist oft sehr voll / kein Social distancing möglich- die Passagiere tragen dennoch keine Gesichtsmasken. Die Busfahrer fahren sehr schnell (speziell die Strecke Uitikon zum Bhf runter) und bremsen abrupt.</t>
+  </si>
+  <si>
+    <t>Bessere Anschlüsse vom Suhrental nach Liestal/Basel.</t>
+  </si>
+  <si>
+    <t>Was soll man machen, wenn man wegen einer Busverspätung den Anschlusszug mit Sparticket verpasst !!???</t>
+  </si>
+  <si>
+    <t>postautoreise, nicht zug. Es war sehr gut - nichts einzuwenden!????????</t>
+  </si>
+  <si>
+    <t>ich bin pendler u würde mich gerne während der fahrt entspannen. billetkontrolle sollte in zukunft irgendwie elektr möglich sein. z.b direkt am sitz. so muss das kontrollpersonal keine passagiere mehr wecken u man muss nicht immer den swisspass suchen oder das handy hinhalten. überflüssig im digitalen zeitalter. chip sollte reichen. das personal kann durch den zug laufen u zb nach grün ok/rot leer kontrollieren. als passagier wird man nicht mehr gestört. man bedenke das die pendler sowiso ein monatsabo besitzen. einfach dafür noch eine lösung finden.</t>
+  </si>
+  <si>
+    <t>Nein, war tiptop</t>
+  </si>
+  <si>
+    <t>Es wäre sehr dienlich, wenn ich mein Tandem im Interregio oder Intercity mitnehmen könnte. Die Beschränkung auf S- Bahnen und RegioExpress ist eine Zumutung.</t>
+  </si>
+  <si>
+    <t>Der Warteraum in Murg auf dem Bahnhof ist dreckig, und nicht einladend ...viele Tages Touristen kommen nach einer wunderbaren Wandertour vom Schiff und wollen sich ausruhen oder hinsetzen bis der Zug kommt</t>
+  </si>
+  <si>
+    <t>Unterführung im Bahnhof Luzern zum Gleis 2 ist schmutzig und hat Velofahrer Hintere Treppen vom Gleis 4 und Unterführung zum Parkhaus sind schmutzig in St. Gallen</t>
+  </si>
+  <si>
+    <t>Raucher sollten besser auf die Raucherzonen hingewiesen werden.</t>
+  </si>
+  <si>
+    <t>Am Albanifest in Winterthur musste die SBbB überdurchschnittlich viele (junge) Menschen nach Winterthur transportieren. Alle Sitzplätze in den Zügen waren schnellstens besetzt, es wurde schon im Zug reichlich Alkohol getrunken. Nur 1 Becher auf dem Boden. Auf dem Perron beim Ein- und Aussteigen herrschte grosser Andrang, grosses Gedränge. Bes. In Winterthur. Anzeigen vor Ort für die Busabfahrtsorte der Buslinien fehlten !!!!!</t>
+  </si>
+  <si>
+    <t>Das Ticket für einen Hund zu lösen auf dem Smartphone ist sehr kompliziert und Bediener unfreundlich.</t>
+  </si>
+  <si>
+    <t>Verbesserung der Anzeigetafeln zu den Perrons in Basel SBB: 1. Oben an Rolltreppe zum Perron wäre die Information, wo sich 1. Klasse befindet, sehr nützlich 2. Anzeigetafel auf dem Perron: nur von Nahem sichtbar wo 1. Klasse ist (die gelbe Farbe ist kaum erkennbar) und zudem wird sie noch zeitweise mit andern Infos überdeckt wie Velo etc.</t>
+  </si>
+  <si>
+    <t>Rauchfrei auf den Perrons. Das wäre wirklich super!</t>
+  </si>
+  <si>
+    <t>Ist okay.</t>
+  </si>
+  <si>
+    <t>Familien-Zügen Mit Kinderwagen gut begehbar, Sichere Abstell Plätze und guter sicht für Kinder aus dem Zug, auch aus dem Kinderwagen.</t>
+  </si>
+  <si>
+    <t>Zugspersonal sollte vermehrt störende Reisende zurechtweisen können ohne selbst angepöbelt zu werden. Dem CHer ist die notwendige Zivilcourage abhanden gekommen.</t>
+  </si>
+  <si>
+    <t>Ein Anschlusszug, der nie erreicht werden kann, ist sinnlos und verärgert nur</t>
   </si>
   <si>
     <t>Teuer</t>
   </si>
   <si>
-    <t>Sie könnten Studentenrabatt erstellen, damit ich Zugfahren kann und nicht ständig das Auto nehmen muss</t>
-  </si>
-  <si>
-    <t>Grundsätzlich guter Service. Klassenwechsel für GA Kunden könnten günstiger sein, sodass man mit einem Halbtax Abo mehr zahlt und nicht gleich viel. Die Doppelstock Züge von Bombardier schütteln zu fest, wenn man oben sitzt kann dies sehr unangenehm sein. Sonst ok.</t>
-  </si>
-  <si>
-    <t>Mehr Sparbillette, auch kurzfristig</t>
-  </si>
-  <si>
-    <t>Das Velo war verhältnismässig teuer. Die SNCF macht’s besser.</t>
-  </si>
-  <si>
-    <t>Für mein Budget ist der Preis mit dem Halbtax ziemlich hoch.:(</t>
-  </si>
-  <si>
-    <t>Ich habe GA Ticket und ich kaufe immer gleiche Preis wie normal Leute von Milano nach Chiasso .</t>
-  </si>
-  <si>
-    <t>Normale Preise. Ich zahle nicht 23.- für ein stehplatz</t>
-  </si>
-  <si>
-    <t>Warum kostet die Strecke Bern - Gempen mehr als wenn ich Bern-Liestal, Liestal- Gempen separat buche? Da fühle ich mich über den Tisch gezogen.</t>
-  </si>
-  <si>
-    <t>Vergünstigungen für Studierende-Anbieten, Das Zug-Fahren noch mehr fördern</t>
-  </si>
-  <si>
-    <t>Es könnte ein wenig günstiger sein.</t>
-  </si>
-  <si>
-    <t>Bitte mehr Velostellplätz</t>
-  </si>
-  <si>
-    <t>Seit der Einbindung meines Wohnorts in den Tarifverbund sind die Fahrkarten massiv teurer geworden und ein Rüxckfahrtbillet zu kaufen ist nicht mehr möglich. Das ist einfach nicht in Ordnung!!</t>
-  </si>
-  <si>
-    <t>Die GA-Preise senken. Ich kenn viele, die ein GA kaufen würden wenn es erschwinglicher wäre (z.B. auch als Ergänzung zu einem Auto).</t>
-  </si>
-  <si>
-    <t>Am Bahnhof Landschlacht fehlt ein Halt-Auf-Verlangen-Knopf wenn man von den Veloständern kommt. Ich finde es sehr schade, dass das Studenten GA abgeschafft wurde.</t>
-  </si>
-  <si>
-    <t>Kürzere Haltezeiten</t>
-  </si>
-  <si>
-    <t>Ohne umsteigen in bern nach thun wäre super</t>
-  </si>
-  <si>
-    <t>Sparbilett auch auf dieser Strecke</t>
-  </si>
-  <si>
-    <t>Ausstieg vom Zug in Domodossola zu hoher Tritt. Gefährlich.</t>
-  </si>
-  <si>
-    <t>Ich muss zu dieser Bahnverbindung sagen, dass der Zug ab Lenzburg (weiterfahrend nach Basel SBB) oft verspätet eintrifft. Manchmal sind es nur ein paar Minuten, heute jedoch ist der Zug sogar ausgefallen. Wegen technischer Probleme.</t>
-  </si>
-  <si>
-    <t>Zürich-Bern weniger Gäste im Zug, respektive mehr Wagen oder mehr Züge.</t>
-  </si>
-  <si>
-    <t>Als Anschluss fuhren wir mit dem IC842, Zürich HB ab 04.01.2020 00:02 nach Bern. Dieser Zug erreichte Bern mit rund 12 Minuten Verspätung. Unverständlich, dass um diese Nachtzeit ein IC vor dem Bahnhof Bern 10! Minuten warten muss. Gemäss Durchsage war im Bahnhof Bern kein freies Gleis verfügbar! Immerhin wartete der IC 993 Richtung Thun den Anschluss noch knapp ab. Andernfalls wären wir mit zahlreichen anderen Fahrgästen in Bern gestrandet...</t>
-  </si>
-  <si>
-    <t>Verbesserung des Türschliesssystem, damit keine Personen mehr mitgeschleift werden, weil sie den Arm nicht mehr aus der geschlossenen Tür herausziehen konnten. Am Samstag 10. Aug. sind wir im IC um 16.00 von Milano nach Bern gefahren. Belegung bis auf den letzten Platz. Katastrophale Platzverhältnisse für das Handgepäck und die Koffern. Wir haben gehört, dass bei dieser Zugskomposition immer dieselben Probleme bestehen. Der Konstrukteuringenieur dieser Zugskomposition muss ein völliger Idiot gewesen sein.</t>
-  </si>
-  <si>
-    <t>Bin erstaunt gewesen, dass diese neue Verbindung über Zürich HB geführt wird. War der Meinung, dass sie direkt nach Zürich-Altstetten führt.</t>
-  </si>
-  <si>
-    <t>S1 zwischen Rotkreuz und Luzern mit Abfahrtszeit in Rotkreuz xx:16 ist seit der Zuger Seesperre konstant mit grossen Verspätungen (&gt;5 Minuten) unterwegs. Anschlussbusse in Ebikon werden oft nicht erreicht und dann muss man eine halbe Stunde warten.</t>
-  </si>
-  <si>
-    <t>Durch die Einstellung des ZVV Nachtnetzes haben sich Aufenthaltsqualität, Publikum und Sauberkeit im Bereich Zürich HB am Sonntagmorgen markant verbessert.</t>
-  </si>
-  <si>
-    <t>Onlineportal verbessern für die richtige und kostengünstige Ticketauswahl, z.B der Citytarif nach Glattbrugg beinahe übersehen.....</t>
-  </si>
-  <si>
-    <t>Die neuesten Züge auf der Strecke Chur-St. Gallen-Zürich (Quer-) schüttelfreier machen lassen..</t>
-  </si>
-  <si>
-    <t>Ich musste selber schauen, wie ich nach Basel ankommen. Niemand hat sich verantwortlich gefühlt.</t>
-  </si>
-  <si>
-    <t>Am Morgen von Safenwil nach Lenzburg hat der Zug vielmals Verspätung (im Moment ist es gut) und ich muss vom Gleis 5 Sektor C zur Unterführung auf das Gleis 2. Warum kann die S11 in Lenzburg nicht auf dem Gleis 4 verkehren? Wäre in beide Richtungen wünschenswert. Damit der Anschluss besser gewährleistet ist. Leider verkehrt der die S28 auch nicht immee von Gleis 5 aus, je nach Zeit auch Gleis 6, dass war nicht immer so. Ich fahre seit 2008 diese Strecke und bis vor ein paar Jahren war es immer Gleis 5. Noch ein anderes Problem, vielfach kommt der 1. Zug von Lenzburg Richtung Zofingen verspätet, warum? Dann verspätet sich auch mein Zug Richtung Lenzburg (Teilstrecken sind nur Einspurig). Auch in Suhr muss häufig auf den Gegenzug gewartet werden. Speziell ist auch, dass das Perron in Suhr zwei Gleis hat. Richtung Lenzburg Gleis 6 Richtung Zofingen Gleis 5, da sich die Gleise im Bahnhof trennen, gleiches Perron zwei Gleise und somit kann der Zug Richtung Lenzburg erst ausfahren, wenn der aus Lenzburg an diesem vorbei ist. Zeit der Weiterfahrt Gleis 6 Richtung Lenzburg gemäss Fahrplan 06:12, Ankunft der S28 aus Lenzburg 06:13 Uhr Gleis 5. Da sich die beiden Züge unmittelbar vor/nach Suhr das Gleis teilen, kann der Zug gar nicht 06:12 Uhr ausfahren, da der Gegenzug noch nicht vorbei ist. Das sind meine Gedanken zu neiner Zugverbindung. Im Moment funktioniert es gut, aber es gibt oft Zeiten da ist es sehr intensiv mit Verspätungen und Ausfällen. Wünsche Ihnen viel Erfolg bei den Problemlösungen im Schienennetz.</t>
-  </si>
-  <si>
-    <t>Zug der Rückfahrt hatte Verspätung - Anschluss verpasst! Pünktlichkeit ist wichtig.</t>
-  </si>
-  <si>
-    <t>Von St Gallen nach Rorschach hat der Doppel Zug ziemlich gestunken nicht gerade sehr angenehm gewessen</t>
-  </si>
-  <si>
-    <t>Dieser Zug war nicht die Hinreise, sondern die Heimreise! Diese Möglichkeit fehlt bein den Angaben Die Hinreise Basel Zürich war ein Sparticket, der Zeitpunkt der Rückreise offen.</t>
-  </si>
-  <si>
-    <t>Ich habe in diesen Tagen 4 Billette nach Zürich gekauft. zweimal war ich von Verspätungen/Zugsausfall betroffen. 1x s25 mit Kupplungsproblemen und Zugsausfall in Ziegelbrücke = 30 Minuten Wartezeit auf den folgenden Zug. 1x von Zürich 5 Minuten Verspätung wegen Gleisproblemen. Anschluss in Ziegelbrücke war aber gesichert.</t>
-  </si>
-  <si>
-    <t>die verbindungen auf der strecke zug - ebikon sind insbesondere abends seit dem sommer 2019 chronisch verspätet.</t>
-  </si>
-  <si>
-    <t>Nicht zuspät kommen, sonst ok.</t>
-  </si>
-  <si>
-    <t>Ich möchte mich äussern zur HIN-Fahrt am Morgen, und eigentlich gar nicht zur abgefragten Rückfahrt am Abend! Am 7.1.2019 fiel der Zug Olten - Zürich HB morgens 7.29 Uhr TOTAL aus (ich kam von Hägendorf). Info im Zug/am Bahnhof gab es keine oder ich bekam es nicht mit. Stand auf dem falschen Gleis und musste mir die Ausweichmöglichkeit per Regionalzug via SBB App möglichst schnell zusammensuchen. Erreichte die Arbeit natürlich verspätet. SICHERHEITSGEFÜHL/SAUBERKEIT: am schlechtesten vor allem nachts am Bahnhof Hägendorf!!</t>
-  </si>
-  <si>
-    <t>Die Anschlüsse in Luzern müssen verbessert werden.</t>
-  </si>
-  <si>
-    <t>Liebe SBB - Sie machen das ganz gut. Mein Anschluss war dann mit dem Gottardo nach Faido. schöner, neuer Zug. on time, nicht überfüllt (1.Kl). auch der retour Weg hat gut geklappt. wir fahren ab und zu nach Zermatt... der Visper Zug ist oft sehr sehr voll. hier müsste man wohl auf Halb-Stunden Takt umstellen (Direktzug ZRH-Visp). Liebe Grüsse Cornelia Gemperle</t>
-  </si>
-  <si>
-    <t>Ich fahre seid Ende Februar diese Strecke einmal die Woche und es wurden erst 2 Kontrollen gemacht. Ist die ein normaler Rhythmus?</t>
-  </si>
-  <si>
-    <t>Von Dietikon zum Flughafen Zürich wäre ohne umsteigen besser.</t>
-  </si>
-  <si>
-    <t>Wir sind begeisterte E-Bikefahrer. Auf der befragten Strecke Marthalen Zürich ist das kein Problem. Auf andern Strecken mit IR und IC wünschen wir uns dringend mehr Veloplätze und bei IR ebenerdigen Einstieg.</t>
-  </si>
-  <si>
-    <t>Auf der Rückfahrt von Zürich nach Winterthur hatte ich das Vergnügen, das erste Mal mit dem neuen Bombardier Doppelstockzug zu fahren. Das Vergnügen entpuppte sich innert kürzester Zeit aber als ZugfahrALPTRAUM. In diesem Zug wird man von A - Z durchgeschüttelt und -gerüttelt. Ich war heilfroh, als ich in Winti wieder aussteigen konnte. Mir graut es jetzt schon, wenn ich das erste Mal wirklich eine lange Strecke mit dieser Klapperkiste fahren muss. Da ist Übelkeit und Unwohlsein mehr als vorprogrammiert. Ich werde versuchen, diesen Zug so gut als möglich zu umgehen und da wäre es sicher hilfreich, wenn man in der APP sehen würde, welcher Zug die benötigte Strecke fährt.</t>
-  </si>
-  <si>
-    <t>Verspätungen auf der Strecke Solothurn-Brugg und umgekehrt reduzieren.</t>
-  </si>
-  <si>
-    <t>Während dieser speziellen Pandemiezeit den Zug verkürzt fahren zu lassen ist frag-würdig.</t>
-  </si>
-  <si>
-    <t>Gibt es die Option von Mehrkartenfahrten für die Strecke Zürich - Brione sM?</t>
-  </si>
-  <si>
-    <t>Der Zug ist ausgefallen, kein Ersatz</t>
-  </si>
-  <si>
-    <t>Information bei Verspätungen</t>
-  </si>
-  <si>
-    <t>Der Zug auf der Rückfahrt ist ausgefallen und ich musste den Zug um 17.09 h nehmen, so dass ich nachher auf den Bus warten musste und eine Stunde zu spät nach Hause kam.</t>
-  </si>
-  <si>
-    <t>Mehr Verbindungen nach Engelberg wären schön. Halbstundentakt.</t>
-  </si>
-  <si>
-    <t>Wegen Panne mit dem ICE ab Bern16:04, war Umsteigen in Olten nötig. Ankunft in Basel mit ca 30 Minuten Verspätung.</t>
-  </si>
-  <si>
-    <t>Die Unzufriedenheit beruht auf der Verspätung, die in Deutschland stattgefunden hat, und mit der SBB nicht direkt in Zusammenhang steht.</t>
-  </si>
-  <si>
-    <t>Da ich keine gleitende Arbeitszeit habe, beträgt der tägliche Mehraufwand wenn ich mit dem ÖV reise, Bern -Muri +2.5 Std Nicht Reisezeit! Zusätzlich! Das ist viel zu viel.. keine Option..mehr Sitzplätze in den PendlerStosszeiten und nicht nur alle Std 1 Zug.. zudem sind die Spar Möglichkeiten wenn man so 2-3 Mal die Woche nach Bern muss gleich null.. es Rentieren weder GA noch Streckenabo</t>
-  </si>
-  <si>
-    <t>Diese Zugfahrt war privat. Aber in derselben Woche machte ich eine geschäftliche Zugfahrt. Da ein Zug technische Störungen hatte war ich nicht rechtzeitig am Arbeitsort beim Kunden. Das ist immer wieder sehr mühsam und schwierig, weil man Menschen warten lassen muss. Ich bitte Sie deshalb dringend noch mehr in die Behebung dieser technischen Störungen zu investieren. Zweitens suche ich immer wieder vergebens nach Stromanschlüssen in den S-Bahnen. Da ich oft im Zug mit dem Compi arbeite und einen Hotspot nutze, brauche ich auch Strom. Auch hierfür bin ich Ihnen sehr dankbar, wenn Sie noch mehr Möglichkeiten anbieten können. Insgesamt möchte ich mich aber für den tollen Service und Ihre Arbeit bedanken!</t>
-  </si>
-  <si>
-    <t>Kontrolle der Billette in der S6 Zürich - Regensdorf wird viel zu wenig durchgeführt , finde dies nicht in Ordnung, gilt auch Zürich - Oerlikon</t>
-  </si>
-  <si>
-    <t>Zugsverspätungen beheben</t>
-  </si>
-  <si>
-    <t>Weshalb werden mir nur datailierte fragen zur Strecke von Wichtrach nach Thun gestellt? Sehr gerne hätte ich all diese Fragen über die Strecke von Thun nach Kandersteg beantwortet, denn mit disem Teil meiner Zugreise war ich überhaupt nicht zufrieden! Warum werden auf dieser gut besuchten Strecke nur Züge eingesetzt die vom Sitzplatzangebot her so beschränkt sind, dass sehrsehr viele Passagiere stehen müssen und noch dass knapp können da man wie Sardinen in der Büchse (nach der Trennung des Zuges in Spiez) reisen muss!? Und einwn Tag später, auf der Rückreise von Reichenbach i.K. nach Thun herrschte wieder genau die selbe Situation; ein viel zu kurzer/kleiner Zug mit zu wenigen Sitzplätzen!</t>
-  </si>
-  <si>
-    <t>Umsteigezeit am HB Bern ist zu kurz Ich erreiche den Anschlusszug nach Wabern nur in 50% der Fälle, trotz Spurt auf dem Perron</t>
-  </si>
-  <si>
-    <t>Ich war zwanzig Minuten zu früh am Bahnhof. Der Monitor zeigte Gleis 7 an. Kurz vor der Abfahrt fuhr ein Güterzug vom Westen kommend Richtung Osten auf Gleis 7. Da realisierte ich, dass mein Zug vielleicht nicht auf Gleis 7 fährt und rannte nach unten zur Anzeigetafel. Da stand dann Gleis 8. Da ich 75 Jahre alt bin, konnte ich nicht so schnell rennen und hätte fast den Zug verpasst, wäre er zur richtigen Zeit abgefahren. Doch hatte er Verspätung und so erwischte ich ihn problemlos. Frühzeitig ide Geleiseänderung bekannt geben, wäre für mich wichtig gewesen!</t>
-  </si>
-  <si>
-    <t>Die Taktzeiten dürfen nicht zu eng bemessen sein.</t>
-  </si>
-  <si>
-    <t>Letztens GA vergessen. Musste 5chf zahlen obwohl ich mich klar ausweisen konnte. Hätte man auch Kulanz zeigen können.</t>
-  </si>
-  <si>
-    <t>Wenn es möglich wäre, auf der App anzuzeigen, dass der Anschlussug nach Kandersteg verschiedene Wagen mit verschiedenen Zielen hat, wäre es entspannter..</t>
-  </si>
-  <si>
-    <t>Beim Lösen der Fahrkarten passierte mir der Fehler, dass ich irrtümlich 1. Klasse löste ca. 1. Stunde der Abfahrt. Bei 2 Personen ein teurer Ausflug nach Altstetten. Leider kann man nur unter bestimmten Bedingungen einen solchen Kauf/Irrtum korrigieren, ich finde dies nicht gut, insbesondere nicht weil das ja EDV-mässig gelöst werden könnte.</t>
-  </si>
-  <si>
-    <t>Habe immer wieder Probleme mit der SBB App. Musste Fahrkarten schon mehrmals über die BLS App lösen . Auf dem BH-Grenchen-Süd konnte mir auch niemand helfen</t>
-  </si>
-  <si>
-    <t>Das SBB App funktioniert nur ganz bei der Einstellung „immer“ und nicht „ beim Verwenden der App“</t>
-  </si>
-  <si>
-    <t>Ticket sollte per App lösbar sein oder - wenn es nur eine Station ausserhalb der Schweiz ist, im GA enthalten sein.</t>
-  </si>
-  <si>
-    <t>Der Ticketkauf via Internet ist für einen ungewohnten Zugfahrer mühsam - wenn man ein Ticket ohne jegliche andere Apps etc als 100% Zahlender kaufen möchte.</t>
-  </si>
-  <si>
-    <t>Ich finde es nicht so übersichtlich beim Buchen der Fahrten über die SBB app.</t>
-  </si>
-  <si>
-    <t>Familienkarten sollten bei den Erwachsenen in der SBB-App hinterlegt werden können.</t>
-  </si>
-  <si>
-    <t>Wir sind von Kurzrickenbach Seepark nach Überlingen gereist. Gerne hätte ich im SBB App oder auf SBB-Online auch gleich das Baden Württemberg Ticket gekauft, habe diese Option aber nicht gefunden. Ich konnte das Ticket dann aber am SBB Automaten an der Haltestelle lösen, das finde ich eine gute Sache. Unklar war leider ob das Ticket schon ab Kurzrickenbach gültig gewesen wäre, da diese Haltestelle in der gleichen Ostwind Zone wie Kreuzlingen liegt, drum habe ich bis Konstanz noch ein SBB Ticket gelöst.</t>
-  </si>
-  <si>
-    <t>Ausfälle geschehen nicht nur wie bei mir heute bei einer Privatbahn, sondern auch bei den SBB; ebenso Verspätungen, wie bei mir gestern auf der Reise in umgekehrter Richtung zwischen Uetikon und Rapperswil. Froh wäre ich dann jeweils um zutreffende Informationen via Lautsprecher oder Anzeige am Ausgangsbahnhof. Geklappt hat es gestern mit der SBB Mobile App: es hiess, der SOB-Zug ab Rapperswil warte den verspäteten Anschluss ab.</t>
-  </si>
-  <si>
-    <t>Wir wollten in Sugiez das Ticket mit dem Schiff nach La Neuveville und nachher nach Rüschlikon nehmen. Das war nicht möglich. Beim Bahnhof Sugiez existierte Rüschlikon und Thalwil nicht.</t>
-  </si>
-  <si>
-    <t>Easy Ride Finde ich toll. Benutze die App regelmässig. Das Angebot auch für Junior Karte erweitern.</t>
-  </si>
-  <si>
-    <t>Bahnhof Schübelbach-Buttikon wieder bedienen, dann brauche ich das Auto nicht...</t>
-  </si>
-  <si>
-    <t>in der App SBB Preview kann keine Libero Tageskarte 10 Zonen gekauft werden. Schade. In BLS App ist das möglich. Werde das. nächste mal dort Tageskarte kaufen</t>
-  </si>
-  <si>
-    <t>Ich nutze die App mit meinem privaten Account auf der Testversion und mit dem Firmen-Account auf der vollen Version. Hebe es noch nicht fertig gebracht mit der Firmenmailadresse meinen privaten Swisspass zu verknüpfen. Ich möchte meine private MAiladresse dort nicht aufgeben.</t>
-  </si>
-  <si>
-    <t>diesen eurocity aus dem programm nehmen! Zug-Milano auf dem app buchbar machen!!</t>
-  </si>
-  <si>
-    <t>Verbesserungsvorschlag für die SBB App: Bei einer Fahrplanabfrage wird immer nur eine Umsteigmöglichkeiten angegeben. Beispiel: Rotkreuz - Wollishofen wird Umsteigen in Thalwil angegeben. In Zug oder</t>
-  </si>
-  <si>
-    <t>eine einfache möglichkeit, die online gekauften Produkte wieder zu annulieren.!!!!</t>
-  </si>
-  <si>
-    <t>- Die App ist super, prima! - die Zonenbilletts für Zone 110 (Zürich) empfinde ich für einen „lokalen“ Gebrauch eher etwas teuer. Aber ich denke hier kann die SBB keinen Einfluss nehmen da das Pricing mit den Zonen von der VBZ aufgesetzt ist. - Gelegentliche „security“ Einsätze vor allem am späteren Abend fände ich persönlich ein Mehrwert, und würde helfen dass man sich etwas sicherer fühlt, da es häufig vorkommt dass um diese Zeit alkoholisierte/pöbelnde Fahrgäste unterwegs sind. (Vor allem Im Netz Zürich)</t>
-  </si>
-  <si>
-    <t>Die SBB-App ist weniger benutzerfreundlich als zuvor.</t>
-  </si>
-  <si>
-    <t>Es ist nicht verständlich, dass es bei der SBB bis heute nicht möglich ist, internationale Bahnbilette über die App zu kaufen??? funktioniert z.B bei der ÖBB wunderbar auch ab Zürich. Auf klassischen</t>
-  </si>
-  <si>
-    <t>Dass Freizeit Angebote auch in der App gelöst werden können.</t>
-  </si>
-  <si>
-    <t>leider konnten wir mit den onlineticet von tüebsee nach engelberg ( und auch an morgen in der gegenrichtung) nicht direkt duch das drehkreuz gehen da unser billet nicht kompartibel war. da hat uns ein netter angestellter mit einen billet ausgeholfen . sonst hätten wir wieder zum eingang zurück gemusst um unser onlineticet zu einem papierticet zu wechseln. dasselbe ist auch bei den pilatusbahnen das problem auch dort kann ich ein ticet pilatus- luzern mit der sbbb-app lösen, aber ich kommt nicht aus den drehkreuz beim ausgang raus. wäre schön wenn sie dieses problem lösen könnten!</t>
-  </si>
-  <si>
-    <t>Ich löse meistens mein Ticket auf der Mobile APP. Dabei stelle ich fest, dass ich oft im Bahnhof Luzern keine Internet-Verbindung habe. Wenn ich nun den Zug erreichen will, passiert es mir des öftern, dass ich mein Ticket nicht ordnungsgemäss vor Antritt der Fahrt lösen kann. Sobald der Zug dann abfährt, auf Höhe Allmend/Messe, erhalte ich Internetzugang und ich kann mein Ticket lösen. Das verunsichert mich, denn sollte je eine Kontrolle genau in diesem Teilbereich von 3 Minuten Fahrt erfolgen, müsste ich mit einer Busse rechnen. Ich denke, eine gute Internetverbindung auf den Bahnhöfen ist ein absolutes MUSS!</t>
-  </si>
-  <si>
-    <t>Ich bin allerdings mit einem Fahrklassenwechsel 1. kl. gefahren. Das kkonnte ich bei der Beferagung nirgends angeben. In der 2. Kl. wären die Antworten wohl anders.</t>
-  </si>
-  <si>
-    <t>Ich wollte ca 2 Wochen vor der Reise ein Sparbillet von Aarau nach Zermatt lösen und retour ebenfalls, war über mehrere Tage nicht möglich, konnte immer nur nach und von Täsch lösen! Darum die Einzelfahrt Zermatt-Täsch!</t>
-  </si>
-  <si>
-    <t>Es ist schwierig mit dem sbb App Karten für Kollegen ohne App zu kaufen.</t>
-  </si>
-  <si>
-    <t>Auf der Rückfahrt um 16:35 von Etziken wurde falsche Informationen auf der App vermittelt! Es gäbe Verspätungen, obeohl das nicht stimmte</t>
-  </si>
-  <si>
-    <t>Bei Reisen mit Easy Ride Begleitperson zum Beispiel Ehepartner ermöglichen!</t>
-  </si>
-  <si>
-    <t>Ich habe mich geärgert, dass meine Gutscheine für das GA Ende 2018 abgelaufen waren und ich bei meiner Fahrt die Gutscheine in den Kübel werfen konnte, anstatt diese brauchen zu können. Das war eine ganz schlechte Idee, die Gutscheine zeitlich zu begrenzen.</t>
-  </si>
-  <si>
-    <t>Ich war mit dem Velo unterwegs, konnte aber auf der APP das Ticket für das Velo nicht finden. Habe dann für das Velo über das ZVV APP das Velo-Ticket gelöst. Am gleichen Tag war ich (mit Velo) mit der Bahn unterwegs, ab Urdorf, ca. 08:40 Richtung Zug. Gemäss Fahrplan war die Velomitnahme nicht erlaubt. Der Zug war leer. Zwei Wochen früher, dasselbe. Veloverbot - leerer Zug.</t>
-  </si>
-  <si>
-    <t>Zugslänge den jeweiligen Benutzerzahlen anpassen.</t>
-  </si>
-  <si>
-    <t>Ich bekam im Bahnhof Bolligen keinen Kontakt zu meinem SBB-App und konnte das Billett erst im Zug lösen (auch per App).</t>
-  </si>
-  <si>
-    <t>Die Haltestellen von Bussen sollte. Auf einer Karte in der App sichtbar sein. Tageskarten sollten im Nachhinein mit beliebigen Zonen ergänzt werden können.</t>
-  </si>
-  <si>
-    <t>Auf der Hinfahrt verpasste ich den Anschluss in Visp. Da ich ein Sparticket gelöst hatte - zeigte an das Ticket sei für die letzte Teilstrecke nicht mehr gültig - das nervt dann zusätzlich. Entgegen der Angabe in. Der App war der Anschlusszug bereits abgefahren..,.</t>
-  </si>
-  <si>
-    <t>Mehr Transparenz bei den Preisen; Busverbindungen (Zonen an Abfahrts-/Ankuftsort) in Preis inkludieren. Mobile-App: Verbindung fixieren/markieren können (zB wenn EasyRide-Billet gezeigt wird, muss danach Verbindung wieder neu eingegeben werden)</t>
-  </si>
-  <si>
-    <t>Zug vom BH Zürich nach Zug ist wegen Bauarbeiten ausgefallen, keine Infos im Zug...nur dass keine Infos vorliegen. Jetz der wirkliche Skandal! An der Schaltertafel stand informieren sie sich über das App!!!Hallo?!!? Es haben nicht alle das App!!!! Für das wäre wohl so eine Infotafel!!</t>
-  </si>
-  <si>
-    <t>Ich reise mit einem grossen Kinderwagen für Zwillinge. Es wäre sehr hilfreich, wenn ich im SBB App einstellen könnte, dass ich nur Verbindungen sehen möchte, die mit Kinderwagen machbar sind (z.B. keinen Umstieg an einer Bushaltestelle/Tram mit Treppen). Es wäre auch schön, wenn die Züge mehr Fahrrad/Kinderwagen Wagen hätten und die Gleise markiert wären, wo die Fahrrad/Kinderwagen Wagen halten. Vielen Dank!</t>
-  </si>
-  <si>
-    <t>Ich möchte, dass möglichst alle Reisen mit den SBB so perfekt funktionieren wie diese Reise. Wie alle Reisenden habe ich unerträglich lange unter den alten und schlechten Zuggarnituren gelitten, weil sich die Lieferung die bestellten Garnituren wieder und wieder verspäteten.</t>
-  </si>
-  <si>
-    <t>Es hat alles zu meiner vollsten Zufriedenheit geklappt.</t>
-  </si>
-  <si>
-    <t>Nein, war alles ok.</t>
-  </si>
-  <si>
-    <t>Einige Zugführer sind humorvoll..., das ist sicher ein Trumpf im Umgang mit den freundlichen Klienten =&gt; so du mir wie ich dir... ;-)</t>
-  </si>
-  <si>
-    <t>Sie könnten pünktlich abfahren und vor allem pünktlich ankommen. Abgesehen von dieser Strecke bin ich mit der SBB aber meist sehr zufrieden. Die Anbindung von Zug und Bus in Liestal ist einfach sehr unglücklich.</t>
-  </si>
-  <si>
-    <t>Ich bin sehr zufrieden - das Velo lasse ich (leider) vermehrt daheim und verlade es nicht mehr für Freizeitausflüge (Stress, unbekannte Aufhängung im Voraus). Eine gute Lösung wäre toll. - ich schätze die Aktion des Freizeit GAs und habe mir eins gekauft. - manchmal wünsche ich mir einen HöflichkeitsCodex bezüglich Telefonieren im Zug. Auf der abgefragten Strecke Olten-Bern hielt ein Mann eine online Konferenz ab in unhöflich lautem Ton, die ganze Reise über. Manchmal motze ich, manchmal nicht.</t>
-  </si>
-  <si>
-    <t>Die Reise war sehr angenehm. Von Visp nach Zermatt sehr viele Leute</t>
-  </si>
-  <si>
-    <t>Fahre seit bald 50 Jahren mit den ÖVs und bin sehr zufrieden DANKE !!!</t>
-  </si>
-  <si>
-    <t>Das Streichen vom Entlastungszug 7:20 schränkt mich täglich ein (sofern nicht gerade HomeOffice statt findet). Bitte wieder einführen. Sonst generell zufrieden mit dem öffentlichen Verkehr.</t>
-  </si>
-  <si>
-    <t>Eigenlich bin ich zufrieden mit dem Angebot der SBB. Die aktuelle Situation mit den defekten Klimaanlagen ist an heissen Tagen unerträglich, so dass ich auf das Auto oder auf die Zugstrecke vie Sursee ausweiche.</t>
-  </si>
-  <si>
-    <t>Weniger Zugausfälle wären ganz nett...</t>
-  </si>
-  <si>
-    <t>Soweit alles OK</t>
-  </si>
-  <si>
-    <t>Bin sehr zufrieden, obwohl eine direkte Verbindung von Burgdorf nach Basel für mich schon sehr fein wäre????</t>
-  </si>
-  <si>
-    <t>SOB finde ich super, vor allem auch das kompetente, freundliche Personal</t>
-  </si>
-  <si>
-    <t>Es tut mir sehr leid, dass SBB sich mit der Bombardier- Bestellung so in Not geraten ist.es wird uns sehr, sehr teuer zu stehen kommen und CFf erleidet einen enormen Vertrauensverlust und Image Schaden.</t>
-  </si>
-  <si>
-    <t>Neuere Infrastruktur</t>
-  </si>
-  <si>
-    <t>Warum müssen die sehr, sehr grossen Kinderwagen der heutigen Zeit, die alles im Zug versperren kein Ticket kaufen? Und ich mit den Velo schon!!!</t>
-  </si>
-  <si>
-    <t>Für Moment ist super</t>
-  </si>
-  <si>
-    <t>Gesamtes SBB Angebot in den heissen Tagen ein Desaster.</t>
-  </si>
-  <si>
-    <t>Sehr gute service einfach und nicht Zeit verlieren</t>
-  </si>
-  <si>
-    <t>Ich bin in den letzten Monate nur mit wenigen Ausnahmen pünktlich angekommen. Diese Strecke ist leider nicht die Paradedisziplin der SBB :(. Bei einer Fahrt blieben wir sogar mehrere Stunden blockiert</t>
-  </si>
-  <si>
-    <t>Ich bin nun gespannt, wie Sie auf mein Feedback reagieren. Die Leistung entsprach nicht dem Preis.</t>
-  </si>
-  <si>
-    <t>Herzliche Gratulation der SBB!</t>
-  </si>
-  <si>
-    <t>Habe ich keine ????</t>
-  </si>
-  <si>
-    <t>Ich finde es eine Frechheit das sie meine anonymisierren Daten, hier für eine Umfrage nutzen. Weniger 1 Klasswagen . 3 1 Klasswagen zu 5 2 Klasswagen, gahts nu.</t>
-  </si>
-  <si>
-    <t>Siehe Hinweis Beschilderung</t>
-  </si>
-  <si>
-    <t>Kommentar bereits gegeben.</t>
-  </si>
-  <si>
-    <t>Siehe vorherigen Kommentar</t>
-  </si>
-  <si>
-    <t>klimaanlage zu kalt</t>
-  </si>
-  <si>
-    <t>Umsteigezeit im Bhf Olten ist je nach Verbindung von Zofingen nach Solothurn sehr lange (20min).Im Winter ist es kalt und es gibt keine gute warme Wartezone.Die Wartehäuschen sind zwar vorhanden,aber dort stinkt es oft und/oder sie sind überfüllt.</t>
-  </si>
-  <si>
-    <t>An heissen Tagen sollte die Klimaanlage funktionieren und in Betrieb sein. Auf alle Fälle bei längeren Zugsreisen.</t>
-  </si>
-  <si>
-    <t>Im Zug von Luzern nach Zürich war es etwas kühl.</t>
-  </si>
-  <si>
-    <t>Man hat seit einigen Jahren den Eindruck, dass überall, gerade auch kleinere Dinge gerade noch so funktionieren (Toiletten, WC, Sitzplatzangebot, dauernde Unklarheiten beim Fahrplan, weil Verspätungen/Ausfälle usw. man hat auch den Eindruck, dass auch das Personal nicht mehr so genau weiss, was eigentlich gilt resp. auch diese werden mit all diesen Änderungen überrumpelt. Das Personal macht aber einen guten Job. Mir scheint, dass es die Klimaanlagen diesen Sommer eher besser eingestellt waren. Das 'Kühlschrankgefühl' hatte ich dieses Jahr etwas weniger. Waren evt. die Differenzen zu den Aussentemperaturen geringer?</t>
-  </si>
-  <si>
-    <t>KLIMAANLAGE !!!!!!!!!!! VIEL ZU KALT . ich werde wenn möglich nur noch im Winter reisen. Wollte eigentlich ein GA kaufen, aber wenn ich immer frieren muss, NEIN DANKE. Bitte sparen sie doch Energie !!! 5.6. vor 5 UHr morgens Klimaanlage soooo kalt und so geblasen !!! um 5 Uhr ist es noch nicht heiss draussen. dann in Basel mit der Deutschen Bahn nach Ostfriesland. WUNDERBAR !!! keine kalte Luft !! nicht zu warm, genau angenehm. Wenn möglich wähle ich später ab Zürich DEUTSCHE BAHN oder TREN ITALIA. SBB weiss mit der Klimaanlage nicht umzugehen. Es frieren viele Leute, nicht nur ich</t>
-  </si>
-  <si>
-    <t>Im Sommer wäre eine Limaanlage angebracht. Zumindest in der 1. Klasse.</t>
-  </si>
-  <si>
-    <t>Bitte etwas weniger heizen, in der S29 ist es immer sehr warm. Für die Sauna geh ich gerne woanders hin ;-)</t>
-  </si>
-  <si>
-    <t>wahr zu kalt im zug, meine partnerin und ich hatten kalt. Klimaanlage geht auch wenn es kühler wird am abend.</t>
-  </si>
-  <si>
-    <t>Klima regulieren!</t>
-  </si>
-  <si>
-    <t>Klimaanlage war viel zu kalt, ansonsten hat alles super geklappt</t>
-  </si>
-  <si>
-    <t>Die Klimaanlage war nicht eingeschaltet. Es war sehr heiß.</t>
-  </si>
-  <si>
-    <t>Für den nassen Schirm ist kein guter Ort im Zug vorgesehen. Das ist ein bisschen ärgerlich.</t>
-  </si>
-  <si>
-    <t>-sicherstellen dass die Klimaanlagen in den Zügen funktionieren</t>
-  </si>
-  <si>
-    <t>Am Tag fühle ich mich auf den SBB Zugstrecken und Banhöfen sicher. Nicht aber abends, speziell Freitag/Samstag nicht. Dann ist die Temperatur in den Zügen immer ein leidiges Thema, in der Regel ist die Lüftung viel zu stark respektive zu kalt!!!! Ausserdem sind die Züge mit den Treppen ein Horror, wenn man mit Gepäck reist. Es ist mir unverständlich, dass man bspw. von und nach ZH Flughafen solche Züge einsetzt. Und das Verstauen von Gepäck ist auch problematisch man muss es meistens zum Sitz nehmen und versperrt so Sitzplätze.</t>
-  </si>
-  <si>
-    <t>Die Lüftung war zu stark eingestellt. Es wäre optimal, diese etwas zu reduzieren, v.a. wenn die Temperaturen im Zug gedrosselt sind.</t>
-  </si>
-  <si>
-    <t>Halbstündigen Verbindung zwischen Luzern und Bern und Anschluss S9 in Emmenbrücke nach S1 Sursee und nicht in Gersag vorsehen. Umsteigen nicht KunDenfreundlich in Gersag. 2 von 5 Mal habe ich den Anschluss verpasst. 1Stunde länger reisen als Konsequenz</t>
-  </si>
-  <si>
-    <t>Ich war schon im Zug von Mailand her. Schön wäre es, wenn bereits vor Lugano die Durchsage käme, dass in Arth-Goldau Anschluss bestehe.</t>
-  </si>
-  <si>
-    <t>Sehr langes warten auf den Anschluss des Busses gehe darum zu Fuss ins Dorf aber sonst alles gut.</t>
-  </si>
-  <si>
-    <t>Gerne wieder direkte Verbindungen basel St. Gallen</t>
-  </si>
-  <si>
-    <t>Die Fahrten zwischen Locarno und ZHB könnten dazwischen auch mal ohne Umsteigen in Bellinzona, sprich durchgehend sein, 20min warten ist vor einfach allem im Winter nicht sehr schön. Wir fahren sogar von Wollerau via ZHB nach Locarno/ Ascona, da wir 20. min mit der SOB in Bieberbrugg auf den Anschluss nach Goldau warten müssen!</t>
-  </si>
-  <si>
-    <t>Verbindung könnte besser und schneller sein, wenn der Anschluss in der Hardbrücke klappen würde wie früher! Fahrzeit würde sich um 30 min. verkürzen! Danke</t>
-  </si>
-  <si>
-    <t>Teure Verbindungen für regelmässige Pendler</t>
-  </si>
-  <si>
-    <t>Die Ausführungen am HB Bern wonach kein Ersatzbus fährt am SA, waren verwirrend. Zwar war wohl direkter Bus ab Zollikofen bis Jegendtorf gemeint, aber ich verstand, dass am SA gar kein Ersatz...</t>
-  </si>
-  <si>
-    <t>Sehr häufig sind die WC s defekt oder unsauber auf dieser Strecke Die Umsteigezeit vom Zug aus Locarno auf den Zug nach Zürich ist zu gross und zwar in beide Richtungen. Der Zeitgewinn einer Reise nach Locarno, der durch den neunen Gotthardtunnel erreicht wird, geht durch die unnötige Wartezeit in Bellinzona wieder verloren. Ich verstehe das inbesondere nicht, da die Zuge in Locarno ohne Weiters 10 Minuten später und der nach Locarno 10 Minuten früher abfahren könnte. Der ganze Plan könnte um 10 Minuten verschoben werden, was ja bei einer Linie ohne weiteren Anschlüsse gut möglich ist.</t>
-  </si>
-  <si>
-    <t>Direkte Busfahrten nach 7.30 frequenter anbieten. Der Bis 350 um 7.30 Ist oft sehr voll / kein Social distancing möglich- die Passagiere tragen dennoch keine Gesichtsmasken. Die Busfahrer fahren sehr schnell (speziell die Strecke Uitikon zum Bhf runter) und bremsen abrupt.</t>
-  </si>
-  <si>
-    <t>in einem postauto wäre es schön, wenn der chauffeur die vordere türe bei jedem halt öffnen würde, um so für mehr frische luft im innern zu sorgen. nur über die mitteltüre gibt es zuwenig luftaustausch in zeiten wie diesen. danke.</t>
-  </si>
-  <si>
-    <t>Bessere Anschlüsse vom Suhrental nach Liestal/Basel.</t>
-  </si>
-  <si>
-    <t>Was soll man machen, wenn man wegen einer Busverspätung den Anschlusszug mit Sparticket verpasst !!???</t>
-  </si>
-  <si>
-    <t>postautoreise, nicht zug. Es war sehr gut - nichts einzuwenden!????????</t>
-  </si>
-  <si>
-    <t>ich bin pendler u würde mich gerne während der fahrt entspannen. billetkontrolle sollte in zukunft irgendwie elektr möglich sein. z.b direkt am sitz. so muss das kontrollpersonal keine passagiere mehr wecken u man muss nicht immer den swisspass suchen oder das handy hinhalten. überflüssig im digitalen zeitalter. chip sollte reichen. das personal kann durch den zug laufen u zb nach grün ok/rot leer kontrollieren. als passagier wird man nicht mehr gestört. man bedenke das die pendler sowiso ein monatsabo besitzen. einfach dafür noch eine lösung finden.</t>
-  </si>
-  <si>
-    <t>Nein, war tiptop</t>
-  </si>
-  <si>
-    <t>Es wäre sehr dienlich, wenn ich mein Tandem im Interregio oder Intercity mitnehmen könnte. Die Beschränkung auf S- Bahnen und RegioExpress ist eine Zumutung.</t>
-  </si>
-  <si>
-    <t>Der Warteraum in Murg auf dem Bahnhof ist dreckig, und nicht einladend ...viele Tages Touristen kommen nach einer wunderbaren Wandertour vom Schiff und wollen sich ausruhen oder hinsetzen bis der Zug kommt</t>
-  </si>
-  <si>
-    <t>Fahrpläne erstellen die auch eingehalten werden können. Dh es ist für mich als Kunde wichtiger, dass der Zug dann fährt wenn er angekündigt ist, als dass ich all 2min darüber informiert werden muss, dass ich weitere 3min warten muss.</t>
-  </si>
-  <si>
-    <t>Unterführung im Bahnhof Luzern zum Gleis 2 ist schmutzig und hat Velofahrer Hintere Treppen vom Gleis 4 und Unterführung zum Parkhaus sind schmutzig in St. Gallen</t>
-  </si>
-  <si>
-    <t>Raucher sollten besser auf die Raucherzonen hingewiesen werden.</t>
-  </si>
-  <si>
-    <t>Am Albanifest in Winterthur musste die SBbB überdurchschnittlich viele (junge) Menschen nach Winterthur transportieren. Alle Sitzplätze in den Zügen waren schnellstens besetzt, es wurde schon im Zug reichlich Alkohol getrunken. Nur 1 Becher auf dem Boden. Auf dem Perron beim Ein- und Aussteigen herrschte grosser Andrang, grosses Gedränge. Bes. In Winterthur. Anzeigen vor Ort für die Busabfahrtsorte der Buslinien fehlten !!!!!</t>
-  </si>
-  <si>
-    <t>Das Ticket für einen Hund zu lösen auf dem Smartphone ist sehr kompliziert und Bediener unfreundlich.</t>
-  </si>
-  <si>
-    <t>Verbesserung der Anzeigetafeln zu den Perrons in Basel SBB: 1. Oben an Rolltreppe zum Perron wäre die Information, wo sich 1. Klasse befindet, sehr nützlich 2. Anzeigetafel auf dem Perron: nur von Nahem sichtbar wo 1. Klasse ist (die gelbe Farbe ist kaum erkennbar) und zudem wird sie noch zeitweise mit andern Infos überdeckt wie Velo etc.</t>
-  </si>
-  <si>
-    <t>Rauchfrei auf den Perrons. Das wäre wirklich super!</t>
-  </si>
-  <si>
-    <t>Ist okay.</t>
-  </si>
-  <si>
-    <t>Zugspersonal sollte vermehrt störende Reisende zurechtweisen können ohne selbst angepöbelt zu werden. Dem CHer ist die notwendige Zivilcourage abhanden gekommen.</t>
-  </si>
-  <si>
-    <t>Ein Anschlusszug, der nie erreicht werden kann, ist sinnlos und verärgert nur</t>
-  </si>
-  <si>
     <t>Bahnhof Ostermundigen ist schlecht zugänglich, jeder kleine Bahnhof auf dem Land mit weniger Frequenzen ist besser ausgebaut. Es gibt kein Lift usw.</t>
   </si>
   <si>
@@ -959,9 +962,6 @@
   </si>
   <si>
     <t>Die Züge könnten moderner sein. Im Bordbistro gibt es zum Beispiel keine Steckdosen. Viele nutzen den Zug zum Arbeiten, er ist eigentlich ein erweitertes Büro. Entsprechend wäre es gut, zumindest bessere Tische für das Arbeiten mit Laptop auf den Plätzen am Gang zu haben.</t>
-  </si>
-  <si>
-    <t>Familien-Zügen Mit Kinderwagen gut begehbar, Sichere Abstell Plätze und guter sicht für Kinder aus dem Zug, auch aus dem Kinderwagen.</t>
   </si>
   <si>
     <t>Auf SSB Smartphone einfaches lösen für Velos</t>
@@ -2032,7 +2032,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2656,7 +2656,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3768,7 +3768,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="313" spans="1:2">
